--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\OneDrive\Рабочий стол\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F078F-4756-4783-B8F6-873EBDEA6A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5998264-061A-4E62-8106-9F1BAC2A2373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Работа</t>
   </si>
@@ -48,21 +48,9 @@
     <t>Учеба IT</t>
   </si>
   <si>
-    <t>Найти транспорт в МСК</t>
-  </si>
-  <si>
-    <t>Купить билеты самолеты</t>
-  </si>
-  <si>
     <t>Аренда помещения</t>
   </si>
   <si>
-    <t>Полить цветы</t>
-  </si>
-  <si>
-    <t>Купить мышки</t>
-  </si>
-  <si>
     <t>Активности</t>
   </si>
   <si>
@@ -75,78 +63,18 @@
     <t>Долги</t>
   </si>
   <si>
-    <t>Галл - 5200</t>
-  </si>
-  <si>
-    <t>Фауст - 3600</t>
-  </si>
-  <si>
-    <t>Жекану отдать 6100</t>
-  </si>
-  <si>
     <t>Привезти принтер с зимней в Бункер</t>
   </si>
   <si>
-    <t>Подобрать термопару для Любич</t>
-  </si>
-  <si>
-    <t>Заказать балкон</t>
-  </si>
-  <si>
-    <t>Собирать квадрик</t>
-  </si>
-  <si>
-    <t>Постирать одежду и обувь</t>
-  </si>
-  <si>
-    <t>Побриться и помыться хорошо</t>
-  </si>
-  <si>
-    <t>Купить витаминый комплекс</t>
-  </si>
-  <si>
-    <t>Оформить налоговый возврат</t>
-  </si>
-  <si>
-    <t>Сходить за посылкой на почту</t>
-  </si>
-  <si>
-    <t>Привезти ноутбук на зимнюю для Димы</t>
-  </si>
-  <si>
-    <t>Увезти вин.проигрыватель в ремонт</t>
-  </si>
-  <si>
     <t xml:space="preserve">Почистить гараж </t>
   </si>
   <si>
-    <t>Встретиться с Димой</t>
-  </si>
-  <si>
     <t>Нарисовать модель черепа для распечатки 3Д</t>
   </si>
   <si>
-    <t>Вынести мусор</t>
-  </si>
-  <si>
-    <t>Погладить одежду убрать ее</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Документы, адреса для поездки </t>
-  </si>
-  <si>
-    <t>Габариты груза</t>
-  </si>
-  <si>
-    <t>Помыть окна</t>
-  </si>
-  <si>
     <t>Привезти холодильник в офис</t>
   </si>
   <si>
-    <t>Зарядить аккумуляторы в поях</t>
-  </si>
-  <si>
     <t xml:space="preserve">Разложить электронные компоненты </t>
   </si>
   <si>
@@ -162,15 +90,6 @@
     <t xml:space="preserve">Поменять дома удлинитель для стиральной машины </t>
   </si>
   <si>
-    <t>Поверить счетчики воды</t>
-  </si>
-  <si>
-    <t>Отправить показания счетчиков</t>
-  </si>
-  <si>
-    <t>Убрать старый фен с душевой</t>
-  </si>
-  <si>
     <t>Починить всю мебель дома</t>
   </si>
   <si>
@@ -186,42 +105,18 @@
     <t>Разобрать файерское оборудование</t>
   </si>
   <si>
-    <t>Распечатать делальки для обувницы</t>
-  </si>
-  <si>
-    <t>Зашить портфель и пальто</t>
-  </si>
-  <si>
-    <t>Постирать зимние вещи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Найти футболки </t>
-  </si>
-  <si>
     <t>Собрать обувницу</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверить принтер </t>
-  </si>
-  <si>
-    <t>Найти ключ от въезда в гараж</t>
-  </si>
-  <si>
     <t>Разобрать походные вещи</t>
   </si>
   <si>
     <t>Разобрать вещи для керамики</t>
   </si>
   <si>
-    <t>Разобрат полезные вещи</t>
-  </si>
-  <si>
     <t>Разобрать инструменты</t>
   </si>
   <si>
-    <t>Купить Миражу терку для пола</t>
-  </si>
-  <si>
     <t>Почнинить крышу</t>
   </si>
   <si>
@@ -243,15 +138,9 @@
     <t>Забрать зарядник от аккумов у Мишки</t>
   </si>
   <si>
-    <t>Привезти пробирки для Игоря</t>
-  </si>
-  <si>
     <t>Привезти принтер</t>
   </si>
   <si>
-    <t>Посчитать кол-во комплектов наборов для детского клуба</t>
-  </si>
-  <si>
     <t>Починить кухонный комбайн</t>
   </si>
   <si>
@@ -270,9 +159,6 @@
     <t>Огненные пулеметы</t>
   </si>
   <si>
-    <t>Забрать книжную полку у Антона</t>
-  </si>
-  <si>
     <t>Написать сценарий игры для ДНД5</t>
   </si>
   <si>
@@ -283,12 +169,6 @@
   </si>
   <si>
     <t>Linux</t>
-  </si>
-  <si>
-    <t>Заплатить за гараж</t>
-  </si>
-  <si>
-    <t>Заплатить за гараж 16.03</t>
   </si>
   <si>
     <t>Docker</t>
@@ -339,13 +219,151 @@
 Настроить Мониторинг Prometeus, influxdata , Zabbix</t>
   </si>
   <si>
-    <t>Забрать одноразовые сигареты у Галла</t>
-  </si>
-  <si>
-    <t>Набрать воды</t>
-  </si>
-  <si>
-    <t>Купить помпу</t>
+    <t>Сделать копию ключа от ворот в гараж. Найти прошиватель ключей на зимней</t>
+  </si>
+  <si>
+    <t>ДНД модуль в субботу</t>
+  </si>
+  <si>
+    <t>Забрать виниловый проигрыватель из ремонта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Увезти Айрату разъемы </t>
+  </si>
+  <si>
+    <t>В пятницу в лазертаг к 7 на ДР Кристинки</t>
+  </si>
+  <si>
+    <t>Проошить квадрик</t>
+  </si>
+  <si>
+    <t>Попробовать обнулить телефон</t>
+  </si>
+  <si>
+    <t>Перенести в Weeek задачки</t>
+  </si>
+  <si>
+    <t>Спаять крокодилы для Imax6</t>
+  </si>
+  <si>
+    <t>Разобрать полезные вещи</t>
+  </si>
+  <si>
+    <t>Зашить пальто</t>
+  </si>
+  <si>
+    <t>Галл - 7600</t>
+  </si>
+  <si>
+    <t>Жекану отдать 5</t>
+  </si>
+  <si>
+    <t>Дома 6,5</t>
+  </si>
+  <si>
+    <t>Найти кабеля для принтера на зимней для Влада</t>
+  </si>
+  <si>
+    <t>Забрать у Миража скалолазное оборудование</t>
+  </si>
+  <si>
+    <t>Забрать у Миража перфоратор</t>
+  </si>
+  <si>
+    <t>Найти перфоратор в гараже</t>
+  </si>
+  <si>
+    <t>Купить крепежи для полки</t>
+  </si>
+  <si>
+    <t>Перебрать ящик с одеждой</t>
+  </si>
+  <si>
+    <t>Сегодня</t>
+  </si>
+  <si>
+    <t>Сдать принтер на  восстановление</t>
+  </si>
+  <si>
+    <t>Фауст - 1000</t>
+  </si>
+  <si>
+    <t>Встретиться с Димой в воскресенье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разпечатать материалы для ДНД. Карту </t>
+  </si>
+  <si>
+    <t>Предложить соседке учебные материалы</t>
+  </si>
+  <si>
+    <t>Во вторник вечером встреча со Светой 28.03</t>
+  </si>
+  <si>
+    <t>Взлять обжимку для интернет кабеля</t>
+  </si>
+  <si>
+    <t>15 аперля 9 00 в гараж. Для приватизации</t>
+  </si>
+  <si>
+    <t>Сказать Хрому что не буду брать сапы</t>
+  </si>
+  <si>
+    <t>Купить ершик на зимнюю</t>
+  </si>
+  <si>
+    <t>Стекло 52 на 57 для индукционной панели</t>
+  </si>
+  <si>
+    <t>Проговорить отпуск с Артуром</t>
+  </si>
+  <si>
+    <t>Перебрать ящик с инструментами</t>
+  </si>
+  <si>
+    <t>Заказать балкон после 11 апреля</t>
+  </si>
+  <si>
+    <t>Приготовить материал для игры</t>
+  </si>
+  <si>
+    <t>За выходные</t>
+  </si>
+  <si>
+    <t>На др в лазертаг</t>
+  </si>
+  <si>
+    <t>Забрать кросы оттуда</t>
+  </si>
+  <si>
+    <t>В кальянку завезти маску</t>
+  </si>
+  <si>
+    <t>Домой и спать</t>
+  </si>
+  <si>
+    <t>Полку установить -восстановить</t>
+  </si>
+  <si>
+    <t>Повесить маркерную доску</t>
+  </si>
+  <si>
+    <t>Пройти Экзамен по питону</t>
+  </si>
+  <si>
+    <t>почитать по CD</t>
+  </si>
+  <si>
+    <t>провести ДНД</t>
+  </si>
+  <si>
+    <t>Приготовить материал для ДНД</t>
+  </si>
+  <si>
+    <t>Сгонять на зимнюю</t>
+  </si>
+  <si>
+    <t>Съездить в РЖД</t>
   </si>
 </sst>
 </file>
@@ -361,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,12 +389,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -476,7 +488,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,21 +777,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="24.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="25.21875" style="6" customWidth="1"/>
+    <col min="4" max="7" width="24.33203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" style="6" customWidth="1"/>
     <col min="10" max="12" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,362 +816,366 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>64</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="F5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>46</v>
+      <c r="B18" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>47</v>
+      <c r="B19" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="F24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\OneDrive\Рабочий стол\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5998264-061A-4E62-8106-9F1BAC2A2373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E55431-78BE-4336-A388-0EE27BDFBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Работа</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Активности</t>
   </si>
   <si>
-    <t>Лазертаг 25.03</t>
-  </si>
-  <si>
-    <t>День Рождения Миража 28.03</t>
-  </si>
-  <si>
     <t>Долги</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
   </si>
   <si>
     <t>Огненные пулеметы</t>
-  </si>
-  <si>
-    <t>Написать сценарий игры для ДНД5</t>
   </si>
   <si>
     <t>Python</t>
@@ -222,18 +213,12 @@
     <t>Сделать копию ключа от ворот в гараж. Найти прошиватель ключей на зимней</t>
   </si>
   <si>
-    <t>ДНД модуль в субботу</t>
-  </si>
-  <si>
     <t>Забрать виниловый проигрыватель из ремонта</t>
   </si>
   <si>
     <t xml:space="preserve">Увезти Айрату разъемы </t>
   </si>
   <si>
-    <t>В пятницу в лазертаг к 7 на ДР Кристинки</t>
-  </si>
-  <si>
     <t>Проошить квадрик</t>
   </si>
   <si>
@@ -252,21 +237,12 @@
     <t>Зашить пальто</t>
   </si>
   <si>
-    <t>Галл - 7600</t>
-  </si>
-  <si>
     <t>Жекану отдать 5</t>
   </si>
   <si>
-    <t>Дома 6,5</t>
-  </si>
-  <si>
     <t>Найти кабеля для принтера на зимней для Влада</t>
   </si>
   <si>
-    <t>Забрать у Миража скалолазное оборудование</t>
-  </si>
-  <si>
     <t>Забрать у Миража перфоратор</t>
   </si>
   <si>
@@ -285,15 +261,6 @@
     <t>Сдать принтер на  восстановление</t>
   </si>
   <si>
-    <t>Фауст - 1000</t>
-  </si>
-  <si>
-    <t>Встретиться с Димой в воскресенье</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разпечатать материалы для ДНД. Карту </t>
-  </si>
-  <si>
     <t>Предложить соседке учебные материалы</t>
   </si>
   <si>
@@ -315,9 +282,6 @@
     <t>Стекло 52 на 57 для индукционной панели</t>
   </si>
   <si>
-    <t>Проговорить отпуск с Артуром</t>
-  </si>
-  <si>
     <t>Перебрать ящик с инструментами</t>
   </si>
   <si>
@@ -330,18 +294,6 @@
     <t>За выходные</t>
   </si>
   <si>
-    <t>На др в лазертаг</t>
-  </si>
-  <si>
-    <t>Забрать кросы оттуда</t>
-  </si>
-  <si>
-    <t>В кальянку завезти маску</t>
-  </si>
-  <si>
-    <t>Домой и спать</t>
-  </si>
-  <si>
     <t>Полку установить -восстановить</t>
   </si>
   <si>
@@ -354,16 +306,16 @@
     <t>почитать по CD</t>
   </si>
   <si>
-    <t>провести ДНД</t>
-  </si>
-  <si>
-    <t>Приготовить материал для ДНД</t>
-  </si>
-  <si>
     <t>Сгонять на зимнюю</t>
   </si>
   <si>
-    <t>Съездить в РЖД</t>
+    <t>День Рождения Миража 31.03</t>
+  </si>
+  <si>
+    <t>Галл - 4900</t>
+  </si>
+  <si>
+    <t>Фауст - 1900</t>
   </si>
 </sst>
 </file>
@@ -465,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -490,12 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,363 +765,315 @@
         <v>8</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I6"/>
-      <c r="J6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F24"/>
+        <v>84</v>
+      </c>
+      <c r="F22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\OneDrive\Рабочий стол\MyFinance\MyFinance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9551b09a99b3d5f0/Рабочий стол/MyFinance/MyFinance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E55431-78BE-4336-A388-0EE27BDFBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F9E55431-78BE-4336-A388-0EE27BDFBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDCAB07-B302-4AE8-94A5-3DCF6AC9A3CC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Работа</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Заказать балкон после 11 апреля</t>
   </si>
   <si>
-    <t>Приготовить материал для игры</t>
-  </si>
-  <si>
     <t>За выходные</t>
   </si>
   <si>
@@ -316,6 +313,24 @@
   </si>
   <si>
     <t>Фауст - 1900</t>
+  </si>
+  <si>
+    <t>В озон</t>
+  </si>
+  <si>
+    <t>Выправить кепку</t>
+  </si>
+  <si>
+    <t>Ждать звонка по стеклу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Домой </t>
+  </si>
+  <si>
+    <t>В кальянку</t>
+  </si>
+  <si>
+    <t>На треню</t>
   </si>
 </sst>
 </file>
@@ -417,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -442,6 +457,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +789,7 @@
         <v>75</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -794,13 +812,16 @@
         <v>42</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>94</v>
+      <c r="J2" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -826,10 +847,13 @@
         <v>63</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -857,8 +881,11 @@
       <c r="I4" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="J4" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="K4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -880,8 +907,11 @@
       <c r="H5" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="J5" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="K5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -901,7 +931,9 @@
         <v>46</v>
       </c>
       <c r="I6"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -919,9 +951,7 @@
       <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -939,7 +969,6 @@
       <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -951,6 +980,9 @@
       <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
@@ -1045,7 +1077,7 @@
     </row>
     <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>57</v>
@@ -1053,7 +1085,7 @@
     </row>
     <row r="19" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>59</v>
@@ -1061,19 +1093,19 @@
     </row>
     <row r="20" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22"/>
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9551b09a99b3d5f0/Рабочий стол/MyFinance/MyFinance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F9E55431-78BE-4336-A388-0EE27BDFBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDCAB07-B302-4AE8-94A5-3DCF6AC9A3CC}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{F9E55431-78BE-4336-A388-0EE27BDFBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D905281E-2253-4D2F-8CC2-8510D1583847}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Работа</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Попробовать обнулить телефон</t>
   </si>
   <si>
-    <t>Перенести в Weeek задачки</t>
-  </si>
-  <si>
     <t>Спаять крокодилы для Imax6</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>Во вторник вечером встреча со Светой 28.03</t>
   </si>
   <si>
-    <t>Взлять обжимку для интернет кабеля</t>
-  </si>
-  <si>
     <t>15 аперля 9 00 в гараж. Для приватизации</t>
   </si>
   <si>
@@ -330,7 +324,7 @@
     <t>В кальянку</t>
   </si>
   <si>
-    <t>На треню</t>
+    <t>Встретитсся со Светой</t>
   </si>
 </sst>
 </file>
@@ -432,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -458,9 +452,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,6 +467,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,7 +739,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,15 +781,15 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
@@ -812,16 +807,16 @@
         <v>42</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -847,13 +842,13 @@
         <v>63</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -867,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>41</v>
@@ -876,16 +871,16 @@
         <v>44</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -893,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
@@ -905,13 +900,13 @@
         <v>45</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>100</v>
+        <v>78</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -925,14 +920,14 @@
         <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I6"/>
       <c r="K6" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -946,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>47</v>
@@ -958,13 +953,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>48</v>
@@ -980,16 +975,13 @@
       <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>28</v>
@@ -1029,12 +1021,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>52</v>
@@ -1042,10 +1034,7 @@
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>53</v>
@@ -1053,7 +1042,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>54</v>
@@ -1061,7 +1050,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>55</v>
@@ -1069,7 +1058,7 @@
     </row>
     <row r="17" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>56</v>
@@ -1077,7 +1066,7 @@
     </row>
     <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>57</v>
@@ -1085,7 +1074,7 @@
     </row>
     <row r="19" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>59</v>
@@ -1093,18 +1082,18 @@
     </row>
     <row r="20" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F20"/>
     </row>
     <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9551b09a99b3d5f0/Рабочий стол/MyFinance/MyFinance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{F9E55431-78BE-4336-A388-0EE27BDFBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D905281E-2253-4D2F-8CC2-8510D1583847}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{899BE961-62A4-4D96-9519-7E3098F21E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598761F7-D2C2-4C48-BFB2-7F9C73F98C2F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Работа</t>
   </si>
@@ -66,21 +66,12 @@
     <t>Нарисовать модель черепа для распечатки 3Д</t>
   </si>
   <si>
-    <t>Привезти холодильник в офис</t>
-  </si>
-  <si>
     <t xml:space="preserve">Разложить электронные компоненты </t>
   </si>
   <si>
-    <t>Повесить дома маркерную доску</t>
-  </si>
-  <si>
     <t>Привезти домой пылесос</t>
   </si>
   <si>
-    <t>Забрать и повесить дома полку для книг</t>
-  </si>
-  <si>
     <t xml:space="preserve">Поменять дома удлинитель для стиральной машины </t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>Разобрать инструменты</t>
   </si>
   <si>
-    <t>Почнинить крышу</t>
-  </si>
-  <si>
     <t>Попробовать лить Алюминий</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
   </si>
   <si>
     <t>Ansible</t>
-  </si>
-  <si>
-    <t>слепой набор клавишь</t>
   </si>
   <si>
     <t>SQL</t>
@@ -213,42 +198,15 @@
     <t>Сделать копию ключа от ворот в гараж. Найти прошиватель ключей на зимней</t>
   </si>
   <si>
-    <t>Забрать виниловый проигрыватель из ремонта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Увезти Айрату разъемы </t>
-  </si>
-  <si>
-    <t>Проошить квадрик</t>
-  </si>
-  <si>
     <t>Попробовать обнулить телефон</t>
   </si>
   <si>
-    <t>Спаять крокодилы для Imax6</t>
-  </si>
-  <si>
     <t>Разобрать полезные вещи</t>
   </si>
   <si>
     <t>Зашить пальто</t>
   </si>
   <si>
-    <t>Жекану отдать 5</t>
-  </si>
-  <si>
-    <t>Найти кабеля для принтера на зимней для Влада</t>
-  </si>
-  <si>
-    <t>Забрать у Миража перфоратор</t>
-  </si>
-  <si>
-    <t>Найти перфоратор в гараже</t>
-  </si>
-  <si>
-    <t>Купить крепежи для полки</t>
-  </si>
-  <si>
     <t>Перебрать ящик с одеждой</t>
   </si>
   <si>
@@ -261,70 +219,79 @@
     <t>Предложить соседке учебные материалы</t>
   </si>
   <si>
-    <t>Во вторник вечером встреча со Светой 28.03</t>
-  </si>
-  <si>
     <t>15 аперля 9 00 в гараж. Для приватизации</t>
   </si>
   <si>
-    <t>Сказать Хрому что не буду брать сапы</t>
-  </si>
-  <si>
-    <t>Купить ершик на зимнюю</t>
-  </si>
-  <si>
-    <t>Стекло 52 на 57 для индукционной панели</t>
-  </si>
-  <si>
-    <t>Перебрать ящик с инструментами</t>
-  </si>
-  <si>
     <t>Заказать балкон после 11 апреля</t>
   </si>
   <si>
-    <t>За выходные</t>
-  </si>
-  <si>
-    <t>Полку установить -восстановить</t>
-  </si>
-  <si>
-    <t>Повесить маркерную доску</t>
-  </si>
-  <si>
-    <t>Пройти Экзамен по питону</t>
-  </si>
-  <si>
-    <t>почитать по CD</t>
-  </si>
-  <si>
-    <t>Сгонять на зимнюю</t>
-  </si>
-  <si>
-    <t>День Рождения Миража 31.03</t>
-  </si>
-  <si>
-    <t>Галл - 4900</t>
-  </si>
-  <si>
-    <t>Фауст - 1900</t>
-  </si>
-  <si>
-    <t>В озон</t>
-  </si>
-  <si>
-    <t>Выправить кепку</t>
-  </si>
-  <si>
-    <t>Ждать звонка по стеклу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Домой </t>
-  </si>
-  <si>
-    <t>В кальянку</t>
-  </si>
-  <si>
-    <t>Встретитсся со Светой</t>
+    <t>Стекло 52 на 57 для индукционной панели. Заказал 24.03 до 17.04 забрать.</t>
+  </si>
+  <si>
+    <t>Ждать звонка по стеклу Заказал 24.03 до 17.04 забрать.</t>
+  </si>
+  <si>
+    <t>Галл - 6500</t>
+  </si>
+  <si>
+    <t>Пересобрать защиту квадкрика</t>
+  </si>
+  <si>
+    <t>Найти биту для ТОРКС со звездой</t>
+  </si>
+  <si>
+    <t>Починить ноутбук</t>
+  </si>
+  <si>
+    <t>Передать кабеля для принтера на зимней для Влада</t>
+  </si>
+  <si>
+    <t>Фауст - 1000</t>
+  </si>
+  <si>
+    <t>Прибраться в кухонных ящиках</t>
+  </si>
+  <si>
+    <t>Купить детали для удлинителя(розетки и вилку)</t>
+  </si>
+  <si>
+    <t>Купить носки новые</t>
+  </si>
+  <si>
+    <t>Завтра</t>
+  </si>
+  <si>
+    <t>Переделать пульт на аккумуляторы</t>
+  </si>
+  <si>
+    <t>К вс приготовить ДНД Модуль</t>
+  </si>
+  <si>
+    <t>15 Игра в кальянке</t>
+  </si>
+  <si>
+    <t>16 Днд в кальянке</t>
+  </si>
+  <si>
+    <t>Взять загранник</t>
+  </si>
+  <si>
+    <t>Убрать загранник в рюкзак</t>
+  </si>
+  <si>
+    <t>Отправить Разору сканы загранника</t>
+  </si>
+  <si>
+    <t>Узнать об электрогенераторе у Никитоса или Антона</t>
+  </si>
+  <si>
+    <t>Таблетки для памяти калий, магний, янтарная кислота В6</t>
+  </si>
+  <si>
+    <t>Получить документы от адамоса</t>
+  </si>
+  <si>
+    <t>Посмотреть Идиота у Куросавы</t>
   </si>
 </sst>
 </file>
@@ -340,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +317,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,6 +454,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,322 +802,286 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>83</v>
+      <c r="A2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>14</v>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>88</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6"/>
-      <c r="K6" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="6"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>95</v>
+        <v>28</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="6" t="s">
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9551b09a99b3d5f0/Рабочий стол/MyFinance/MyFinance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\OneDrive\Рабочий стол\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{899BE961-62A4-4D96-9519-7E3098F21E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598761F7-D2C2-4C48-BFB2-7F9C73F98C2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC3D276-2866-48D3-BCEC-5C994F64F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -219,12 +230,6 @@
     <t>Предложить соседке учебные материалы</t>
   </si>
   <si>
-    <t>15 аперля 9 00 в гараж. Для приватизации</t>
-  </si>
-  <si>
-    <t>Заказать балкон после 11 апреля</t>
-  </si>
-  <si>
     <t>Стекло 52 на 57 для индукционной панели. Заказал 24.03 до 17.04 забрать.</t>
   </si>
   <si>
@@ -234,9 +239,6 @@
     <t>Галл - 6500</t>
   </si>
   <si>
-    <t>Пересобрать защиту квадкрика</t>
-  </si>
-  <si>
     <t>Найти биту для ТОРКС со звездой</t>
   </si>
   <si>
@@ -246,9 +248,6 @@
     <t>Передать кабеля для принтера на зимней для Влада</t>
   </si>
   <si>
-    <t>Фауст - 1000</t>
-  </si>
-  <si>
     <t>Прибраться в кухонных ящиках</t>
   </si>
   <si>
@@ -267,31 +266,44 @@
     <t>К вс приготовить ДНД Модуль</t>
   </si>
   <si>
-    <t>15 Игра в кальянке</t>
-  </si>
-  <si>
-    <t>16 Днд в кальянке</t>
-  </si>
-  <si>
-    <t>Взять загранник</t>
-  </si>
-  <si>
-    <t>Убрать загранник в рюкзак</t>
-  </si>
-  <si>
-    <t>Отправить Разору сканы загранника</t>
-  </si>
-  <si>
     <t>Узнать об электрогенераторе у Никитоса или Антона</t>
   </si>
   <si>
-    <t>Таблетки для памяти калий, магний, янтарная кислота В6</t>
-  </si>
-  <si>
-    <t>Получить документы от адамоса</t>
-  </si>
-  <si>
     <t>Посмотреть Идиота у Куросавы</t>
+  </si>
+  <si>
+    <t>Забрать у Мишки  массажер</t>
+  </si>
+  <si>
+    <t>к 18 на уход за лицом</t>
+  </si>
+  <si>
+    <t>Постирать и починить домашнее спальное белье</t>
+  </si>
+  <si>
+    <t>погладить одежду</t>
+  </si>
+  <si>
+    <t>Перебрать пульт от квадрокоптера</t>
+  </si>
+  <si>
+    <t>Почитатьъ</t>
+  </si>
+  <si>
+    <t>Приготовить еду</t>
+  </si>
+  <si>
+    <t>Заказать балкон после 11 апреля  89058772623
+Антон</t>
+  </si>
+  <si>
+    <t>К Жекану</t>
+  </si>
+  <si>
+    <t>На треню</t>
+  </si>
+  <si>
+    <t>Найти копирователь ключей</t>
   </si>
 </sst>
 </file>
@@ -307,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,12 +362,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -429,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,9 +474,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -488,10 +491,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,15 +804,12 @@
         <v>60</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
@@ -830,16 +826,16 @@
       <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>63</v>
+      <c r="H2" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
@@ -860,14 +856,9 @@
       <c r="G3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -880,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>37</v>
@@ -888,11 +879,8 @@
       <c r="G4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -924,7 +912,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>42</v>
@@ -942,7 +930,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>43</v>
@@ -959,7 +947,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>44</v>
@@ -976,13 +964,13 @@
         <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
@@ -993,7 +981,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>46</v>
@@ -1007,21 +995,18 @@
         <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>69</v>
+      <c r="D12" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>47</v>
@@ -1031,16 +1016,13 @@
       <c r="B13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="G13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="6" t="s">
@@ -1049,7 +1031,7 @@
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>50</v>
@@ -1057,15 +1039,15 @@
     </row>
     <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>52</v>
@@ -1073,13 +1055,37 @@
     </row>
     <row r="18" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\OneDrive\Рабочий стол\MyFinance\MyFinance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC3D276-2866-48D3-BCEC-5C994F64F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6592D9-1304-45F0-9B58-8A48BACD334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Основной" sheetId="1" r:id="rId1"/>
+    <sheet name="Для ноута " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
   <si>
     <t>Работа</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Учеба IT</t>
   </si>
   <si>
-    <t>Аренда помещения</t>
-  </si>
-  <si>
     <t>Активности</t>
   </si>
   <si>
@@ -77,15 +75,6 @@
     <t>Нарисовать модель черепа для распечатки 3Д</t>
   </si>
   <si>
-    <t xml:space="preserve">Разложить электронные компоненты </t>
-  </si>
-  <si>
-    <t>Привезти домой пылесос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поменять дома удлинитель для стиральной машины </t>
-  </si>
-  <si>
     <t>Починить всю мебель дома</t>
   </si>
   <si>
@@ -101,9 +90,6 @@
     <t>Разобрать файерское оборудование</t>
   </si>
   <si>
-    <t>Собрать обувницу</t>
-  </si>
-  <si>
     <t>Разобрать походные вещи</t>
   </si>
   <si>
@@ -125,25 +111,13 @@
     <t>Купить двигатель для машины</t>
   </si>
   <si>
-    <t>Зарядить аккумулятор от машины</t>
-  </si>
-  <si>
-    <t>Забрать зарядник от аккумов у Мишки</t>
-  </si>
-  <si>
     <t>Привезти принтер</t>
   </si>
   <si>
     <t>Починить кухонный комбайн</t>
   </si>
   <si>
-    <t>Купить маме мясорубку</t>
-  </si>
-  <si>
     <t>Привезти шлем из дома чтобы снять видео от первого лица</t>
-  </si>
-  <si>
-    <t>Выкинуть накопившийся мусор</t>
   </si>
   <si>
     <t>Собирать мини огнененые пушки</t>
@@ -206,12 +180,6 @@
 Настроить Мониторинг Prometeus, influxdata , Zabbix</t>
   </si>
   <si>
-    <t>Сделать копию ключа от ворот в гараж. Найти прошиватель ключей на зимней</t>
-  </si>
-  <si>
-    <t>Попробовать обнулить телефон</t>
-  </si>
-  <si>
     <t>Разобрать полезные вещи</t>
   </si>
   <si>
@@ -227,90 +195,342 @@
     <t>Сдать принтер на  восстановление</t>
   </si>
   <si>
-    <t>Предложить соседке учебные материалы</t>
-  </si>
-  <si>
-    <t>Стекло 52 на 57 для индукционной панели. Заказал 24.03 до 17.04 забрать.</t>
-  </si>
-  <si>
-    <t>Ждать звонка по стеклу Заказал 24.03 до 17.04 забрать.</t>
-  </si>
-  <si>
     <t>Галл - 6500</t>
   </si>
   <si>
     <t>Найти биту для ТОРКС со звездой</t>
   </si>
   <si>
+    <t>Передать кабеля для принтера на зимней для Влада</t>
+  </si>
+  <si>
+    <t>Прибраться в кухонных ящиках</t>
+  </si>
+  <si>
+    <t>Купить носки новые</t>
+  </si>
+  <si>
+    <t>Завтра</t>
+  </si>
+  <si>
+    <t>Посмотреть Идиота у Куросавы</t>
+  </si>
+  <si>
+    <t>Адреса других сервисных центров в Ижевске</t>
+  </si>
+  <si>
+    <t>Для вашего удобства прилагаем список других, никак не связанных с нами, сервисов по ремонту мобильных телефонов</t>
+  </si>
+  <si>
+    <t>Название сервисного центра</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Первый</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Ленина, 11</t>
+  </si>
+  <si>
+    <t>+7 (3412) 51-47-51</t>
+  </si>
+  <si>
+    <t>ТехноПолис</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Шишкина, 29</t>
+  </si>
+  <si>
+    <t>+7 (3412) 57-60-65</t>
+  </si>
+  <si>
+    <t>Сервисный центр Быт Тех Сервис</t>
+  </si>
+  <si>
+    <t>г. Ижевск, Пушкинская ул., 136А</t>
+  </si>
+  <si>
+    <t>+7 (3412) 65-56-44</t>
+  </si>
+  <si>
+    <t>Компьютерные Технологии</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Азина, 4</t>
+  </si>
+  <si>
+    <t>+7 (3412) 56-83-97</t>
+  </si>
+  <si>
+    <t>RocketFix</t>
+  </si>
+  <si>
+    <t>г. Ижевск, Воткинское ш., 168А</t>
+  </si>
+  <si>
+    <t>+7 (3412) 77-02-06</t>
+  </si>
+  <si>
+    <t>Симка</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Ленина, 7</t>
+  </si>
+  <si>
+    <t>+7 (3412) 50-19-01, +7 (3412) 55-58-78</t>
+  </si>
+  <si>
+    <t>Pedant.ru</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Карла Маркса, 173</t>
+  </si>
+  <si>
+    <t>+7 (3412) 33-10-09</t>
+  </si>
+  <si>
+    <t>Системщик18</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Михаила Петрова, 7</t>
+  </si>
+  <si>
+    <t>+7 (3412) 77-06-96</t>
+  </si>
+  <si>
+    <t>Апельсин</t>
+  </si>
+  <si>
+    <t>г. Ижевск, Красноармейская ул., 142</t>
+  </si>
+  <si>
+    <t>+7 (3412) 47-68-04</t>
+  </si>
+  <si>
+    <t>Мелофон</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Михаила Петрова, 31</t>
+  </si>
+  <si>
+    <t>+7 (3412) 57-05-80</t>
+  </si>
+  <si>
+    <t>Юz</t>
+  </si>
+  <si>
+    <t>г. Ижевск, Удмуртская ул., 304</t>
+  </si>
+  <si>
+    <t>+7 (3412) 22-25-34</t>
+  </si>
+  <si>
+    <t>Прайм</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Карла Маркса, 177</t>
+  </si>
+  <si>
+    <t>+7 (3412) 23-33-93</t>
+  </si>
+  <si>
+    <t>Зеон</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. 9 Января, 257</t>
+  </si>
+  <si>
+    <t>+7 (3412) 31-30-00</t>
+  </si>
+  <si>
+    <t>Геком</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. имени Вадима Сивкова, 150</t>
+  </si>
+  <si>
+    <t>+7 (3412) 77-34-74</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Баранова, 87</t>
+  </si>
+  <si>
+    <t>+7 (3412) 33-09-00</t>
+  </si>
+  <si>
+    <t>Дельта сервис</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Кирова, 115</t>
+  </si>
+  <si>
+    <t>+7 (3412) 24-09-40, +7 (3412) 24-19-41</t>
+  </si>
+  <si>
+    <t>Профи сервис</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Холмогорова, 11</t>
+  </si>
+  <si>
+    <t>+7 (3412) 47-01-07</t>
+  </si>
+  <si>
+    <t>Гаджет бар</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Максима Горького, 76</t>
+  </si>
+  <si>
+    <t>+7 (3412) 47-80-78</t>
+  </si>
+  <si>
+    <t>ЯРазбил</t>
+  </si>
+  <si>
+    <t>г. Ижевск, Клубная ул., 36</t>
+  </si>
+  <si>
+    <t>+7 (3412) 24-41-77</t>
+  </si>
+  <si>
+    <t>Dr. Mobile ремонтная мастерская</t>
+  </si>
+  <si>
+    <t>г. Ижевск, Красная ул., 156</t>
+  </si>
+  <si>
+    <t>+7 (3412) 47-50-06</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Ворошилова, 44</t>
+  </si>
+  <si>
+    <t>+7 (3412) 77-04-95</t>
+  </si>
+  <si>
+    <t>SGservice</t>
+  </si>
+  <si>
+    <t>г. Ижевск, Автозаводская ул., 3А</t>
+  </si>
+  <si>
+    <t>+7 (3412) 47-49-40, +7 (3412) 47-90-13</t>
+  </si>
+  <si>
+    <t>Apple18. service</t>
+  </si>
+  <si>
+    <t>г. Ижевск, Пушкинская ул., 190</t>
+  </si>
+  <si>
+    <t>+7 (3412) 64-23-14</t>
+  </si>
+  <si>
+    <t>СЦ РеСтарт</t>
+  </si>
+  <si>
+    <t>г. Ижевск, ул. Баранова, 75А</t>
+  </si>
+  <si>
+    <t>+7 (3412) 47-66-69</t>
+  </si>
+  <si>
+    <t>Мелофон - Сигма</t>
+  </si>
+  <si>
+    <t>г. Ижевск, Широкий пер., 53</t>
+  </si>
+  <si>
+    <t>Передать отпечаток Хрому</t>
+  </si>
+  <si>
+    <t>Купить</t>
+  </si>
+  <si>
+    <t>Носки</t>
+  </si>
+  <si>
+    <t>Сдать велосипед в ремонт</t>
+  </si>
+  <si>
+    <t>Забрать радиостанции у Влада</t>
+  </si>
+  <si>
+    <t>найти кисточки</t>
+  </si>
+  <si>
     <t>Починить ноутбук</t>
   </si>
   <si>
-    <t>Передать кабеля для принтера на зимней для Влада</t>
-  </si>
-  <si>
-    <t>Прибраться в кухонных ящиках</t>
-  </si>
-  <si>
-    <t>Купить детали для удлинителя(розетки и вилку)</t>
-  </si>
-  <si>
-    <t>Купить носки новые</t>
-  </si>
-  <si>
-    <t>Завтра</t>
-  </si>
-  <si>
-    <t>Переделать пульт на аккумуляторы</t>
-  </si>
-  <si>
-    <t>К вс приготовить ДНД Модуль</t>
-  </si>
-  <si>
-    <t>Узнать об электрогенераторе у Никитоса или Антона</t>
-  </si>
-  <si>
-    <t>Посмотреть Идиота у Куросавы</t>
-  </si>
-  <si>
-    <t>Забрать у Мишки  массажер</t>
-  </si>
-  <si>
-    <t>к 18 на уход за лицом</t>
-  </si>
-  <si>
-    <t>Постирать и починить домашнее спальное белье</t>
-  </si>
-  <si>
-    <t>погладить одежду</t>
-  </si>
-  <si>
-    <t>Перебрать пульт от квадрокоптера</t>
-  </si>
-  <si>
-    <t>Почитатьъ</t>
-  </si>
-  <si>
-    <t>Приготовить еду</t>
-  </si>
-  <si>
-    <t>Заказать балкон после 11 апреля  89058772623
-Антон</t>
-  </si>
-  <si>
-    <t>К Жекану</t>
-  </si>
-  <si>
-    <t>На треню</t>
-  </si>
-  <si>
-    <t>Найти копирователь ключей</t>
+    <t>замерять стекло на индукционной плите поднять стекла домой. Купить герметик автомобильный</t>
+  </si>
+  <si>
+    <t>Определить что за лодка на зимней</t>
+  </si>
+  <si>
+    <t>Привезти домой пылесос, найти от него крепление на стену</t>
+  </si>
+  <si>
+    <t>Забрать биты Торкс с зимней</t>
+  </si>
+  <si>
+    <t>Жекан должен 2к</t>
+  </si>
+  <si>
+    <t>Забрать очки из метки</t>
+  </si>
+  <si>
+    <t>Собрать самокат и позвонить сгонять</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Купить Соньке еды </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Договориться чтобы за ней пррсмотрели</t>
+    </r>
+  </si>
+  <si>
+    <t>Привезти с зимней вентилятор</t>
+  </si>
+  <si>
+    <t>Купить авто мобильный герметик</t>
+  </si>
+  <si>
+    <t>Набрать воды</t>
+  </si>
+  <si>
+    <t>Поднять термо краску с гарада</t>
+  </si>
+  <si>
+    <t>Поднять термо краску с гаража</t>
+  </si>
+  <si>
+    <t>Взять кичточку с зимней</t>
+  </si>
+  <si>
+    <t>Заплатить за Ипотеку и Кредитку</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +538,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Bender"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Bender"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,12 +579,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,6 +592,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAF3E1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,8 +718,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,13 +1016,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="6" customWidth="1"/>
     <col min="2" max="3" width="25.21875" style="6" customWidth="1"/>
@@ -772,7 +1032,7 @@
     <col min="10" max="12" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="43.8" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,299 +1055,583 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="28.8">
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="43.2">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="L3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="43.2">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="28.8">
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="28.8">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8">
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8">
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8">
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8">
+      <c r="B10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.2">
+      <c r="B11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8">
+      <c r="B12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="6" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="72">
+      <c r="B13" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="6" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="28.8">
+      <c r="B14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="6" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="43.2">
+      <c r="B15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="16" spans="1:12" ht="43.2">
+      <c r="B16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="6" t="s">
+    </row>
+    <row r="17" spans="2:7" ht="28.8">
+      <c r="B17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="6" t="s">
+    <row r="18" spans="2:7" ht="57.6">
+      <c r="G18" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
+    <row r="19" spans="2:7" ht="48" customHeight="1"/>
+    <row r="20" spans="2:7" ht="32.4" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D3692-049E-4EB1-8D09-BDFA3EDD5B36}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="69.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45.6">
+      <c r="A1" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="52.2">
+      <c r="A3" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999">
+      <c r="A5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34.799999999999997">
+      <c r="A6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.799999999999997">
+      <c r="A7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="52.2">
+      <c r="A8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.799999999999997">
+      <c r="A9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="52.2">
+      <c r="A10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34.799999999999997">
+      <c r="A11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34.799999999999997">
+      <c r="A12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34.799999999999997">
+      <c r="A13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="52.2">
+      <c r="A14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="52.2">
+      <c r="A15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34.799999999999997">
+      <c r="A16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.799999999999997">
+      <c r="A17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34.799999999999997">
+      <c r="A18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="52.2">
+      <c r="A19" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34.799999999999997">
+      <c r="A20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34.799999999999997">
+      <c r="A21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34.799999999999997">
+      <c r="A22" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="52.2">
+      <c r="A23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.799999999999997">
+      <c r="A24" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34.799999999999997">
+      <c r="A25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.799999999999997">
+      <c r="A26" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="52.2">
+      <c r="A27" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34.799999999999997">
+      <c r="A28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34.799999999999997">
+      <c r="A29" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="34.799999999999997">
+      <c r="A30" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6592D9-1304-45F0-9B58-8A48BACD334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6073F766-88A9-441F-B6F7-CBA1156D897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
   <si>
     <t>Работа</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Забрать радиостанции у Влада</t>
   </si>
   <si>
-    <t>найти кисточки</t>
-  </si>
-  <si>
     <t>Починить ноутбук</t>
   </si>
   <si>
@@ -474,9 +471,6 @@
     <t>Определить что за лодка на зимней</t>
   </si>
   <si>
-    <t>Привезти домой пылесос, найти от него крепление на стену</t>
-  </si>
-  <si>
     <t>Забрать биты Торкс с зимней</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
   </si>
   <si>
     <t>Забрать очки из метки</t>
-  </si>
-  <si>
-    <t>Собрать самокат и позвонить сгонять</t>
   </si>
   <si>
     <r>
@@ -520,10 +511,34 @@
     <t>Поднять термо краску с гаража</t>
   </si>
   <si>
-    <t>Взять кичточку с зимней</t>
-  </si>
-  <si>
     <t>Заплатить за Ипотеку и Кредитку</t>
+  </si>
+  <si>
+    <t>Привезти учебный набор для Манюхи и Соседки</t>
+  </si>
+  <si>
+    <t>В челны на выхи</t>
+  </si>
+  <si>
+    <t>На мастер-класс в МВЕУ</t>
+  </si>
+  <si>
+    <t>Майке на ДР</t>
+  </si>
+  <si>
+    <t>в Пятницу в Галерею</t>
+  </si>
+  <si>
+    <t>С Жеканом сегодня</t>
+  </si>
+  <si>
+    <t>Заехать на почту с утра</t>
+  </si>
+  <si>
+    <t>Снять наличку</t>
+  </si>
+  <si>
+    <t>настроить удаленный стол</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1071,6 +1086,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.8">
+      <c r="A2" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1089,6 +1107,9 @@
       <c r="G2" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="H2" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="I2" s="12" t="s">
         <v>51</v>
       </c>
@@ -1097,6 +1118,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="43.2">
+      <c r="A3" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>26</v>
@@ -1115,12 +1139,15 @@
       <c r="G3" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J3" s="6"/>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="43.2">
@@ -1130,8 +1157,8 @@
       <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>53</v>
@@ -1141,6 +1168,9 @@
       </c>
       <c r="G4" s="6" t="s">
         <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8">
@@ -1151,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>139</v>
@@ -1161,6 +1191,9 @@
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="6"/>
@@ -1173,13 +1206,16 @@
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8">
@@ -1190,10 +1226,13 @@
         <v>46</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8">
@@ -1203,8 +1242,8 @@
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
+      <c r="D8" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>35</v>
@@ -1217,8 +1256,8 @@
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>141</v>
+      <c r="D9" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="6" t="s">
@@ -1230,7 +1269,7 @@
         <v>135</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>143</v>
@@ -1244,32 +1283,29 @@
         <v>138</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8">
+    <row r="12" spans="1:12" ht="72">
       <c r="B12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="72">
+    <row r="13" spans="1:12" ht="43.2">
       <c r="B13" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>39</v>
@@ -1283,7 +1319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="43.2">
+    <row r="15" spans="1:12">
       <c r="B15" s="6" t="s">
         <v>149</v>
       </c>
@@ -1292,28 +1328,22 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2">
-      <c r="B16" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="G16" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="28.8">
-      <c r="B17" s="6" t="s">
-        <v>152</v>
-      </c>
+    <row r="17" spans="7:7" ht="28.8">
       <c r="G17" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="57.6">
+    <row r="18" spans="7:7" ht="57.6">
       <c r="G18" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="48" customHeight="1"/>
-    <row r="20" spans="2:7" ht="32.4" customHeight="1"/>
+    <row r="19" spans="7:7" ht="48" customHeight="1"/>
+    <row r="20" spans="7:7" ht="32.4" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1324,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D3692-049E-4EB1-8D09-BDFA3EDD5B36}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6073F766-88A9-441F-B6F7-CBA1156D897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF0CA0F-A8B7-47BE-91E4-FBB1D5C13825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
-    <sheet name="Для ноута " sheetId="2" r:id="rId2"/>
+    <sheet name="Рацион" sheetId="3" r:id="rId2"/>
+    <sheet name="Для ноута " sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="189">
   <si>
     <t>Работа</t>
   </si>
@@ -112,9 +113,6 @@
   </si>
   <si>
     <t>Привезти принтер</t>
-  </si>
-  <si>
-    <t>Починить кухонный комбайн</t>
   </si>
   <si>
     <t>Привезти шлем из дома чтобы снять видео от первого лица</t>
@@ -198,9 +196,6 @@
     <t>Галл - 6500</t>
   </si>
   <si>
-    <t>Найти биту для ТОРКС со звездой</t>
-  </si>
-  <si>
     <t>Передать кабеля для принтера на зимней для Влада</t>
   </si>
   <si>
@@ -459,9 +454,6 @@
     <t>Сдать велосипед в ремонт</t>
   </si>
   <si>
-    <t>Забрать радиостанции у Влада</t>
-  </si>
-  <si>
     <t>Починить ноутбук</t>
   </si>
   <si>
@@ -471,74 +463,151 @@
     <t>Определить что за лодка на зимней</t>
   </si>
   <si>
-    <t>Забрать биты Торкс с зимней</t>
-  </si>
-  <si>
-    <t>Жекан должен 2к</t>
-  </si>
-  <si>
     <t>Забрать очки из метки</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Купить Соньке еды </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Договориться чтобы за ней пррсмотрели</t>
-    </r>
-  </si>
-  <si>
-    <t>Привезти с зимней вентилятор</t>
-  </si>
-  <si>
     <t>Купить авто мобильный герметик</t>
   </si>
   <si>
-    <t>Набрать воды</t>
-  </si>
-  <si>
-    <t>Поднять термо краску с гарада</t>
-  </si>
-  <si>
     <t>Поднять термо краску с гаража</t>
   </si>
   <si>
-    <t>Заплатить за Ипотеку и Кредитку</t>
-  </si>
-  <si>
     <t>Привезти учебный набор для Манюхи и Соседки</t>
   </si>
   <si>
-    <t>В челны на выхи</t>
-  </si>
-  <si>
-    <t>На мастер-класс в МВЕУ</t>
-  </si>
-  <si>
-    <t>Майке на ДР</t>
-  </si>
-  <si>
-    <t>в Пятницу в Галерею</t>
-  </si>
-  <si>
-    <t>С Жеканом сегодня</t>
-  </si>
-  <si>
-    <t>Заехать на почту с утра</t>
-  </si>
-  <si>
-    <t>Снять наличку</t>
-  </si>
-  <si>
-    <t>настроить удаленный стол</t>
+    <t>Позвонить по самокатам</t>
+  </si>
+  <si>
+    <t>Унести мамину посуду</t>
+  </si>
+  <si>
+    <t>Зашить одежду</t>
+  </si>
+  <si>
+    <t>Постирать коврик в ванной</t>
+  </si>
+  <si>
+    <t>Погладить одежду</t>
+  </si>
+  <si>
+    <t>Отправить фотки мясорубки, Найти шилдик, Разобрать, пофоткать, найти на алике</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 00 </t>
+  </si>
+  <si>
+    <t>7 00 - 8 00 - 9 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 00 </t>
+  </si>
+  <si>
+    <t>18 00</t>
+  </si>
+  <si>
+    <t>21 00</t>
+  </si>
+  <si>
+    <t>Еда</t>
+  </si>
+  <si>
+    <t>Пн</t>
+  </si>
+  <si>
+    <t>Вт</t>
+  </si>
+  <si>
+    <t>Ср</t>
+  </si>
+  <si>
+    <t>Чт</t>
+  </si>
+  <si>
+    <t>Пт</t>
+  </si>
+  <si>
+    <t>Сб</t>
+  </si>
+  <si>
+    <t>Вс</t>
+  </si>
+  <si>
+    <t>Завтрак</t>
+  </si>
+  <si>
+    <t>Обед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полдник </t>
+  </si>
+  <si>
+    <t>Ужин</t>
+  </si>
+  <si>
+    <t>Поздний ужин</t>
+  </si>
+  <si>
+    <t>Яйца + овсянка + яблоки + кофе</t>
+  </si>
+  <si>
+    <t>Макароны с фаршем</t>
+  </si>
+  <si>
+    <t>Бобовые с мясом</t>
+  </si>
+  <si>
+    <t>Каша с мясом</t>
+  </si>
+  <si>
+    <t>Макароны с рыбой</t>
+  </si>
+  <si>
+    <t>Кефир</t>
+  </si>
+  <si>
+    <t>Кефир + Фрукты</t>
+  </si>
+  <si>
+    <t>Мюсли или хлопья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хлебцы, овощи, курица вареная </t>
+  </si>
+  <si>
+    <t>Молочная каша или ячница</t>
+  </si>
+  <si>
+    <t>Молочная каша или омлет</t>
+  </si>
+  <si>
+    <t>Йогурт</t>
+  </si>
+  <si>
+    <t>Творог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В любое время </t>
+  </si>
+  <si>
+    <t>Никогда</t>
+  </si>
+  <si>
+    <t>Пиво, чипсы, снеки</t>
+  </si>
+  <si>
+    <t>Сахар и сладости</t>
+  </si>
+  <si>
+    <t>Салаты</t>
+  </si>
+  <si>
+    <t>Супы, овощи, салаты</t>
+  </si>
+  <si>
+    <t>Вода</t>
   </si>
 </sst>
 </file>
@@ -554,14 +623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
@@ -572,8 +633,14 @@
       <color rgb="FF000000"/>
       <name val="Bender"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,8 +689,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -691,11 +770,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -733,24 +827,44 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1033,14 +1147,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="25.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" style="6" customWidth="1"/>
     <col min="4" max="7" width="24.33203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" style="6" customWidth="1"/>
@@ -1076,19 +1191,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.8">
-      <c r="A2" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1105,22 +1217,16 @@
         <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="43.2">
-      <c r="A3" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1131,51 +1237,39 @@
         <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="L3" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="4" spans="1:12" ht="43.2">
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -1184,23 +1278,20 @@
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="28.8">
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>18</v>
@@ -1208,142 +1299,130 @@
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8">
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8">
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>140</v>
+      <c r="D8" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8">
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>142</v>
+      <c r="D9" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8">
+      <c r="B10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8">
-      <c r="B10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="43.2">
+    <row r="11" spans="1:12" ht="57.6">
       <c r="B11" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="72">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8">
       <c r="B12" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="43.2">
-      <c r="B13" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="6" t="s">
+    <row r="14" spans="1:12">
+      <c r="B14" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.8">
-      <c r="B14" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.2">
+      <c r="B16" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="43.2">
-      <c r="G16" s="6" t="s">
+    <row r="17" spans="2:7" ht="28.8">
+      <c r="B17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="7:7" ht="28.8">
-      <c r="G17" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" ht="57.6">
+    <row r="18" spans="2:7" ht="57.6">
+      <c r="B18" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="G18" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" ht="48" customHeight="1"/>
-    <row r="20" spans="7:7" ht="32.4" customHeight="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="48" customHeight="1"/>
+    <row r="20" spans="2:7" ht="32.4" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1351,6 +1430,243 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225F4700-9A75-4BE5-9FBF-A560CD888987}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="9" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="C1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D3692-049E-4EB1-8D09-BDFA3EDD5B36}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1367,298 +1683,298 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45.6">
       <c r="A1" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2">
       <c r="A3" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999">
       <c r="A5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.799999999999997">
       <c r="A6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.799999999999997">
       <c r="A7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.2">
       <c r="A8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.799999999999997">
       <c r="A9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.2">
       <c r="A10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34.799999999999997">
       <c r="A11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34.799999999999997">
       <c r="A12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34.799999999999997">
       <c r="A13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.2">
       <c r="A14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="52.2">
       <c r="A15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.799999999999997">
       <c r="A16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.799999999999997">
       <c r="A17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34.799999999999997">
       <c r="A18" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="52.2">
       <c r="A19" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34.799999999999997">
       <c r="A20" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34.799999999999997">
       <c r="A21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34.799999999999997">
       <c r="A22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="52.2">
       <c r="A23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34.799999999999997">
       <c r="A24" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34.799999999999997">
       <c r="A25" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34.799999999999997">
       <c r="A26" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="52.2">
       <c r="A27" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.799999999999997">
       <c r="A28" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34.799999999999997">
       <c r="A29" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34.799999999999997">
       <c r="A30" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF0CA0F-A8B7-47BE-91E4-FBB1D5C13825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B16E5-CCE0-4499-92B1-AD50AA0F7EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="190">
   <si>
     <t>Работа</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Привезти принтер</t>
-  </si>
-  <si>
-    <t>Привезти шлем из дома чтобы снять видео от первого лица</t>
   </si>
   <si>
     <t>Собирать мини огнененые пушки</t>
@@ -460,15 +457,9 @@
     <t>замерять стекло на индукционной плите поднять стекла домой. Купить герметик автомобильный</t>
   </si>
   <si>
-    <t>Определить что за лодка на зимней</t>
-  </si>
-  <si>
     <t>Забрать очки из метки</t>
   </si>
   <si>
-    <t>Купить авто мобильный герметик</t>
-  </si>
-  <si>
     <t>Поднять термо краску с гаража</t>
   </si>
   <si>
@@ -484,15 +475,9 @@
     <t>Зашить одежду</t>
   </si>
   <si>
-    <t>Постирать коврик в ванной</t>
-  </si>
-  <si>
     <t>Погладить одежду</t>
   </si>
   <si>
-    <t>Отправить фотки мясорубки, Найти шилдик, Разобрать, пофоткать, найти на алике</t>
-  </si>
-  <si>
     <t>Время</t>
   </si>
   <si>
@@ -608,6 +593,24 @@
   </si>
   <si>
     <t>Вода</t>
+  </si>
+  <si>
+    <t>Фауст - 6000</t>
+  </si>
+  <si>
+    <t>Жекан 19000</t>
+  </si>
+  <si>
+    <t>Купить лопасти для Лодки</t>
+  </si>
+  <si>
+    <t>Смазать кулер в увлажнитете</t>
+  </si>
+  <si>
+    <t>Забрать исусью тряпку с зимней или купить новую</t>
+  </si>
+  <si>
+    <t>Купить Итроканазол</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -845,12 +848,8 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,7 +863,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1148,7 +1149,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1191,13 +1192,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.8">
@@ -1217,13 +1218,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="43.2">
@@ -1236,40 +1237,49 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="43.2">
+      <c r="L3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8">
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>51</v>
+      <c r="E4" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -1277,21 +1287,18 @@
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="28.8">
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>18</v>
@@ -1300,125 +1307,122 @@
         <v>23</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8">
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8">
       <c r="B8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8">
       <c r="B9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8">
       <c r="B10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="57.6">
       <c r="B11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="6" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="G15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="6" t="s">
+    <row r="16" spans="1:12" ht="43.2">
+      <c r="B16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="43.2">
-      <c r="B16" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="28.8">
       <c r="B17" s="6" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="57.6">
       <c r="B18" s="6" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="48" customHeight="1"/>
@@ -1445,216 +1449,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24" t="s">
+      <c r="H2" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="C7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="H7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="26" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="26" t="s">
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="26" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
         <v>180</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="22" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1683,298 +1687,298 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45.6">
       <c r="A1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2">
       <c r="A3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999">
       <c r="A5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.799999999999997">
       <c r="A6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.799999999999997">
       <c r="A7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.2">
       <c r="A8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.799999999999997">
       <c r="A9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.2">
       <c r="A10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34.799999999999997">
       <c r="A11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34.799999999999997">
       <c r="A12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="17" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="52.2">
+      <c r="A13" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="34.799999999999997">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.2">
       <c r="A14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="52.2">
       <c r="A15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.799999999999997">
       <c r="A16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.799999999999997">
       <c r="A17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34.799999999999997">
       <c r="A18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="52.2">
       <c r="A19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34.799999999999997">
       <c r="A20" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34.799999999999997">
       <c r="A21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34.799999999999997">
       <c r="A22" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="52.2">
       <c r="A23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34.799999999999997">
       <c r="A24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34.799999999999997">
       <c r="A25" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34.799999999999997">
       <c r="A26" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="52.2">
       <c r="A27" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="15" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="52.2">
+      <c r="A28" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="34.799999999999997">
-      <c r="A28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34.799999999999997">
       <c r="A29" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34.799999999999997">
       <c r="A30" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>132</v>
-      </c>
       <c r="C30" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B16E5-CCE0-4499-92B1-AD50AA0F7EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C53610-AAC9-496A-AAE4-19D40347EC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
     <sheet name="Рацион" sheetId="3" r:id="rId2"/>
     <sheet name="Для ноута " sheetId="2" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="202">
   <si>
     <t>Работа</t>
   </si>
@@ -199,9 +200,6 @@
     <t>Прибраться в кухонных ящиках</t>
   </si>
   <si>
-    <t>Купить носки новые</t>
-  </si>
-  <si>
     <t>Завтра</t>
   </si>
   <si>
@@ -439,15 +437,9 @@
     <t>г. Ижевск, Широкий пер., 53</t>
   </si>
   <si>
-    <t>Передать отпечаток Хрому</t>
-  </si>
-  <si>
     <t>Купить</t>
   </si>
   <si>
-    <t>Носки</t>
-  </si>
-  <si>
     <t>Сдать велосипед в ремонт</t>
   </si>
   <si>
@@ -469,12 +461,6 @@
     <t>Позвонить по самокатам</t>
   </si>
   <si>
-    <t>Унести мамину посуду</t>
-  </si>
-  <si>
-    <t>Зашить одежду</t>
-  </si>
-  <si>
     <t>Погладить одежду</t>
   </si>
   <si>
@@ -601,23 +587,74 @@
     <t>Жекан 19000</t>
   </si>
   <si>
-    <t>Купить лопасти для Лодки</t>
-  </si>
-  <si>
     <t>Смазать кулер в увлажнитете</t>
   </si>
   <si>
-    <t>Забрать исусью тряпку с зимней или купить новую</t>
-  </si>
-  <si>
-    <t>Купить Итроканазол</t>
+    <t>В доставке</t>
+  </si>
+  <si>
+    <t>Спаять зарядку для наушников</t>
+  </si>
+  <si>
+    <t>Исусья тряпка с 21 - 23</t>
+  </si>
+  <si>
+    <t>Продукты домой</t>
+  </si>
+  <si>
+    <t>Органайзеры для ящиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Документ камеры </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТВ </t>
+  </si>
+  <si>
+    <t>Инт.панель</t>
+  </si>
+  <si>
+    <t>МФУ</t>
+  </si>
+  <si>
+    <t>Моноблоки</t>
+  </si>
+  <si>
+    <t>МБП</t>
+  </si>
+  <si>
+    <t>Прол</t>
+  </si>
+  <si>
+    <t>Лопасти</t>
+  </si>
+  <si>
+    <t>Уф диоды</t>
+  </si>
+  <si>
+    <t>Уровень для винилового проигрывателя</t>
+  </si>
+  <si>
+    <t>Записаться на курсы по С#</t>
+  </si>
+  <si>
+    <t>Сделать тестовое для курсов</t>
+  </si>
+  <si>
+    <t>Реле</t>
+  </si>
+  <si>
+    <t>Щупы</t>
+  </si>
+  <si>
+    <t>Увлажнители</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,8 +679,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -865,6 +914,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1160,10 +1218,11 @@
     <col min="4" max="7" width="24.33203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" style="6" customWidth="1"/>
-    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="13" width="16.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="43.8" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,13 +1254,19 @@
         <v>47</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.8">
+        <v>131</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8">
+      <c r="A2" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1224,10 +1289,16 @@
         <v>49</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="43.2">
+        <v>185</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.2">
+      <c r="A3" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1247,14 +1318,17 @@
         <v>28</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="L3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.8">
+      <c r="L3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.8">
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1339,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>26</v>
@@ -1274,10 +1348,13 @@
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.8">
+        <v>180</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="43.2">
       <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
@@ -1287,16 +1364,16 @@
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.8">
+      <c r="M5" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8">
       <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1309,8 +1386,11 @@
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="28.8">
+      <c r="M6" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.8">
       <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
@@ -1318,115 +1398,109 @@
         <v>44</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="28.8">
+      <c r="M7" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.8">
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8">
-      <c r="B9" s="6" t="s">
+      <c r="M8" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="28.8">
+      <c r="B9" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9"/>
       <c r="G9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8">
-      <c r="B10" s="9" t="s">
-        <v>135</v>
+    <row r="10" spans="1:13" ht="57.6">
+      <c r="B10" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="57.6">
+    <row r="11" spans="1:13" ht="43.2">
       <c r="B11" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="B12" s="6" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="B13" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="6" t="s">
-        <v>143</v>
-      </c>
+    <row r="14" spans="1:13">
       <c r="G14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
+      <c r="B15" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="G15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="43.2">
-      <c r="B16" s="6" t="s">
-        <v>144</v>
-      </c>
+    <row r="16" spans="1:13" ht="43.2">
       <c r="G16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="28.8">
-      <c r="B17" s="6" t="s">
-        <v>186</v>
-      </c>
+    <row r="17" spans="7:7" ht="28.8">
       <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="57.6">
-      <c r="B18" s="6" t="s">
-        <v>187</v>
-      </c>
+    <row r="18" spans="7:7" ht="57.6">
       <c r="G18" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="48" customHeight="1"/>
-    <row r="20" spans="2:7" ht="32.4" customHeight="1"/>
+    <row r="19" spans="7:7" ht="48" customHeight="1"/>
+    <row r="20" spans="7:7" ht="32.4" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1450,7 +1524,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="C1" s="26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -1462,203 +1536,203 @@
     <row r="2" spans="1:9">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>164</v>
-      </c>
       <c r="D3" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A4" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>165</v>
-      </c>
       <c r="D4" s="25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A6" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>167</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>175</v>
-      </c>
       <c r="E7" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>181</v>
-      </c>
       <c r="G7" s="24" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1687,298 +1761,351 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45.6">
       <c r="A1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2">
       <c r="A3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999">
       <c r="A5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.799999999999997">
       <c r="A6" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.799999999999997">
       <c r="A7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.2">
       <c r="A8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.799999999999997">
       <c r="A9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.2">
       <c r="A10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34.799999999999997">
       <c r="A11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34.799999999999997">
       <c r="A12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="52.2">
       <c r="A13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.2">
       <c r="A14" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="52.2">
       <c r="A15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.799999999999997">
       <c r="A16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.799999999999997">
       <c r="A17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34.799999999999997">
       <c r="A18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="52.2">
       <c r="A19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34.799999999999997">
       <c r="A20" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34.799999999999997">
       <c r="A21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34.799999999999997">
       <c r="A22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="52.2">
       <c r="A23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34.799999999999997">
       <c r="A24" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34.799999999999997">
       <c r="A25" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34.799999999999997">
       <c r="A26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="52.2">
       <c r="A27" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="52.2">
       <c r="A28" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34.799999999999997">
       <c r="A29" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34.799999999999997">
       <c r="A30" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>131</v>
-      </c>
       <c r="C30" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C35A14-D84D-4489-B85A-691B00FDEDF5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="78.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C53610-AAC9-496A-AAE4-19D40347EC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250E057-04C7-4C59-BA88-F5BD39954B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="212">
   <si>
     <t>Работа</t>
   </si>
@@ -446,15 +446,9 @@
     <t>Починить ноутбук</t>
   </si>
   <si>
-    <t>замерять стекло на индукционной плите поднять стекла домой. Купить герметик автомобильный</t>
-  </si>
-  <si>
     <t>Забрать очки из метки</t>
   </si>
   <si>
-    <t>Поднять термо краску с гаража</t>
-  </si>
-  <si>
     <t>Привезти учебный набор для Манюхи и Соседки</t>
   </si>
   <si>
@@ -584,18 +578,9 @@
     <t>Фауст - 6000</t>
   </si>
   <si>
-    <t>Жекан 19000</t>
-  </si>
-  <si>
-    <t>Смазать кулер в увлажнитете</t>
-  </si>
-  <si>
     <t>В доставке</t>
   </si>
   <si>
-    <t>Спаять зарядку для наушников</t>
-  </si>
-  <si>
     <t>Исусья тряпка с 21 - 23</t>
   </si>
   <si>
@@ -635,12 +620,6 @@
     <t>Уровень для винилового проигрывателя</t>
   </si>
   <si>
-    <t>Записаться на курсы по С#</t>
-  </si>
-  <si>
-    <t>Сделать тестовое для курсов</t>
-  </si>
-  <si>
     <t>Реле</t>
   </si>
   <si>
@@ -648,6 +627,57 @@
   </si>
   <si>
     <t>Увлажнители</t>
+  </si>
+  <si>
+    <t>Купить балон с черной краской и покрасить Мишкин стелаж</t>
+  </si>
+  <si>
+    <t>Продать принтер из гаража</t>
+  </si>
+  <si>
+    <t>Жекан 14000</t>
+  </si>
+  <si>
+    <t>Сделать зарядку для мибэнда</t>
+  </si>
+  <si>
+    <t>Самокат отдать Антону</t>
+  </si>
+  <si>
+    <t>Летать на квадрике</t>
+  </si>
+  <si>
+    <t>Отрисовать держатель мойки винила</t>
+  </si>
+  <si>
+    <t>Купить пленку в канцтоварах для варочной панели</t>
+  </si>
+  <si>
+    <t>Перевезти колонки и блок питания с зимней</t>
+  </si>
+  <si>
+    <t>Найти моноблоки</t>
+  </si>
+  <si>
+    <t>Пластелин</t>
+  </si>
+  <si>
+    <t>Тройники для газовых пушек</t>
+  </si>
+  <si>
+    <t>Дисплей для телефона</t>
+  </si>
+  <si>
+    <t>Померять балкон, напилить досок, найти шурик сверло и саморезы. Найти что укладывать на пол. Найти утеплитель, забрать у фауста из гаража</t>
+  </si>
+  <si>
+    <t>Габариты балкона - 3100 на 990 на 140</t>
+  </si>
+  <si>
+    <t>Починить ноут Игоряна</t>
+  </si>
+  <si>
+    <t>Подумать о свете на балкон</t>
   </si>
 </sst>
 </file>
@@ -686,7 +716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +780,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -912,16 +948,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1207,7 +1246,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1260,12 +1299,12 @@
         <v>131</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.8">
       <c r="A2" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
@@ -1289,15 +1328,15 @@
         <v>49</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="43.2">
       <c r="A3" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
@@ -1318,14 +1357,14 @@
         <v>28</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>195</v>
+        <v>181</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.8">
@@ -1339,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>26</v>
@@ -1348,10 +1387,10 @@
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="43.2">
@@ -1370,7 +1409,7 @@
       <c r="I5"/>
       <c r="J5" s="6"/>
       <c r="M5" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.8">
@@ -1387,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.8">
@@ -1404,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.8">
@@ -1415,92 +1454,122 @@
         <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="43.2">
       <c r="B9" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="57.6">
+      <c r="M9" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.2">
       <c r="B10" s="6" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>136</v>
+        <v>196</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="M10" s="11" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="43.2">
       <c r="B11" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="6" t="s">
-        <v>183</v>
+      <c r="M11" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="100.8">
+      <c r="D12" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="28.8">
       <c r="B13" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13">
+      <c r="B14" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="G14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="6" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.2">
+      <c r="B16" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="G16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="7:7" ht="28.8">
+    <row r="17" spans="2:7" ht="28.8">
+      <c r="B17" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="57.6">
+    <row r="18" spans="2:7" ht="57.6">
       <c r="G18" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="7:7" ht="48" customHeight="1"/>
-    <row r="20" spans="7:7" ht="32.4" customHeight="1"/>
+    <row r="19" spans="2:7" ht="48" customHeight="1"/>
+    <row r="20" spans="2:7" ht="32.4" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1523,216 +1592,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>151</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>168</v>
-      </c>
       <c r="F3" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>162</v>
-      </c>
       <c r="E4" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>163</v>
-      </c>
       <c r="G4" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>160</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>163</v>
-      </c>
       <c r="F6" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G6" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>162</v>
-      </c>
       <c r="I6" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1926,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="52.2">
+    <row r="13" spans="1:3" ht="34.799999999999997">
       <c r="A13" s="15" t="s">
         <v>80</v>
       </c>
@@ -2022,7 +2091,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="52.2">
+    <row r="28" spans="1:3" ht="34.799999999999997">
       <c r="A28" s="17" t="s">
         <v>123</v>
       </c>
@@ -2075,37 +2144,37 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250E057-04C7-4C59-BA88-F5BD39954B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524E1D32-F842-40D0-86AD-9A7DA6F0FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33585" yWindow="1830" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
     <sheet name="Рацион" sheetId="3" r:id="rId2"/>
     <sheet name="Для ноута " sheetId="2" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="199">
   <si>
     <t>Работа</t>
   </si>
@@ -77,16 +76,10 @@
     <t>Нарисовать модель черепа для распечатки 3Д</t>
   </si>
   <si>
-    <t>Починить всю мебель дома</t>
-  </si>
-  <si>
     <t>Забрать у Ромки скалолазное оборудование</t>
   </si>
   <si>
     <t>Перебрать полки над телевизором</t>
-  </si>
-  <si>
-    <t>Собирать файер стафф</t>
   </si>
   <si>
     <t>Разобрать файерское оборудование</t>
@@ -179,21 +172,12 @@
     <t>Разобрать полезные вещи</t>
   </si>
   <si>
-    <t>Зашить пальто</t>
-  </si>
-  <si>
     <t>Перебрать ящик с одеждой</t>
   </si>
   <si>
     <t>Сегодня</t>
   </si>
   <si>
-    <t>Сдать принтер на  восстановление</t>
-  </si>
-  <si>
-    <t>Галл - 6500</t>
-  </si>
-  <si>
     <t>Передать кабеля для принтера на зимней для Влада</t>
   </si>
   <si>
@@ -203,9 +187,6 @@
     <t>Завтра</t>
   </si>
   <si>
-    <t>Посмотреть Идиота у Куросавы</t>
-  </si>
-  <si>
     <t>Адреса других сервисных центров в Ижевске</t>
   </si>
   <si>
@@ -581,39 +562,9 @@
     <t>В доставке</t>
   </si>
   <si>
-    <t>Исусья тряпка с 21 - 23</t>
-  </si>
-  <si>
-    <t>Продукты домой</t>
-  </si>
-  <si>
     <t>Органайзеры для ящиков</t>
   </si>
   <si>
-    <t xml:space="preserve">Документ камеры </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТВ </t>
-  </si>
-  <si>
-    <t>Инт.панель</t>
-  </si>
-  <si>
-    <t>МФУ</t>
-  </si>
-  <si>
-    <t>Моноблоки</t>
-  </si>
-  <si>
-    <t>МБП</t>
-  </si>
-  <si>
-    <t>Прол</t>
-  </si>
-  <si>
-    <t>Лопасти</t>
-  </si>
-  <si>
     <t>Уф диоды</t>
   </si>
   <si>
@@ -635,9 +586,6 @@
     <t>Продать принтер из гаража</t>
   </si>
   <si>
-    <t>Жекан 14000</t>
-  </si>
-  <si>
     <t>Сделать зарядку для мибэнда</t>
   </si>
   <si>
@@ -647,21 +595,6 @@
     <t>Летать на квадрике</t>
   </si>
   <si>
-    <t>Отрисовать держатель мойки винила</t>
-  </si>
-  <si>
-    <t>Купить пленку в канцтоварах для варочной панели</t>
-  </si>
-  <si>
-    <t>Перевезти колонки и блок питания с зимней</t>
-  </si>
-  <si>
-    <t>Найти моноблоки</t>
-  </si>
-  <si>
-    <t>Пластелин</t>
-  </si>
-  <si>
     <t>Тройники для газовых пушек</t>
   </si>
   <si>
@@ -678,6 +611,33 @@
   </si>
   <si>
     <t>Подумать о свете на балкон</t>
+  </si>
+  <si>
+    <t>Отчитаться за коммандировку</t>
+  </si>
+  <si>
+    <t>Подписать договор</t>
+  </si>
+  <si>
+    <t>Галл - 3500</t>
+  </si>
+  <si>
+    <t>еще 1 Договор с Олегом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купить лаги на пол 50 на 50 </t>
+  </si>
+  <si>
+    <t>привезти с зимней отеплитель на балкон</t>
+  </si>
+  <si>
+    <t>Записать винду на флешку</t>
+  </si>
+  <si>
+    <t>Пленка для трафарета</t>
+  </si>
+  <si>
+    <t>Жекан 4000</t>
   </si>
 </sst>
 </file>
@@ -716,7 +676,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +746,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,15 +843,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,11 +920,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,19 +1215,20 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="6" customWidth="1"/>
-    <col min="4" max="7" width="24.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" style="5" customWidth="1"/>
+    <col min="4" max="6" width="24.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="5" customWidth="1"/>
     <col min="10" max="11" width="16.77734375" customWidth="1"/>
-    <col min="12" max="13" width="16.77734375" style="6" customWidth="1"/>
+    <col min="12" max="13" width="16.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.8" customHeight="1" thickBot="1">
@@ -1280,296 +1250,281 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="M2" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.2">
+      <c r="A3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.8">
+      <c r="A4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" ht="43.2">
+      <c r="A5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="5"/>
+      <c r="M5" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8">
+      <c r="B6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.8">
+      <c r="B8" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8">
-      <c r="A2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="6" t="s">
+    <row r="9" spans="1:13" ht="43.2">
+      <c r="B9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="D9" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="43.2">
-      <c r="A3" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.8">
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="M4" s="27" t="s">
+      <c r="G9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" ht="100.8">
+      <c r="B10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="43.2">
+      <c r="B11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.2">
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" s="6"/>
-      <c r="M5" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.8">
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="28.8">
-      <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.8">
-      <c r="B8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="G12" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="43.2">
-      <c r="B9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="G13" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.8">
+      <c r="B14" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="43.2">
-      <c r="B10" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="43.2">
-      <c r="B11" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="100.8">
-      <c r="D12" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="G14" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8">
-      <c r="B13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="6" t="s">
+    <row r="15" spans="1:13">
+      <c r="G15" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="6" t="s">
+    <row r="16" spans="1:13" ht="43.2">
+      <c r="G16" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="6" t="s">
+    <row r="17" spans="7:7" ht="28.8">
+      <c r="G17" s="30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.2">
-      <c r="B16" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="28.8">
-      <c r="B17" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="6" t="s">
+    <row r="18" spans="7:7" ht="57.6">
+      <c r="G18" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="57.6">
-      <c r="G18" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="48" customHeight="1"/>
-    <row r="20" spans="2:7" ht="32.4" customHeight="1"/>
+    <row r="19" spans="7:7" ht="48" customHeight="1"/>
+    <row r="20" spans="7:7" ht="32.4" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1581,7 +1536,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1592,216 +1547,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="B3" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="B4" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="B5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="B6" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D7" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="19" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="20" t="s">
-        <v>171</v>
+      <c r="B14" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1829,352 +1784,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="52.2">
+      <c r="A3" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999">
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34.799999999999997">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="52.2">
-      <c r="A3" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999">
-      <c r="A5" s="15" t="s">
+    <row r="7" spans="1:3" ht="34.799999999999997">
+      <c r="A7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.799999999999997">
-      <c r="A6" s="17" t="s">
+    <row r="8" spans="1:3" ht="52.2">
+      <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.799999999999997">
-      <c r="A7" s="15" t="s">
+    <row r="9" spans="1:3" ht="34.799999999999997">
+      <c r="A9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="52.2">
-      <c r="A8" s="17" t="s">
+    <row r="10" spans="1:3" ht="52.2">
+      <c r="A10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34.799999999999997">
-      <c r="A9" s="15" t="s">
+    <row r="11" spans="1:3" ht="34.799999999999997">
+      <c r="A11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="52.2">
-      <c r="A10" s="17" t="s">
+    <row r="12" spans="1:3" ht="34.799999999999997">
+      <c r="A12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34.799999999999997">
-      <c r="A11" s="15" t="s">
+    <row r="13" spans="1:3" ht="52.2">
+      <c r="A13" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34.799999999999997">
-      <c r="A12" s="17" t="s">
+    <row r="14" spans="1:3" ht="52.2">
+      <c r="A14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.799999999999997">
-      <c r="A13" s="15" t="s">
+    <row r="15" spans="1:3" ht="52.2">
+      <c r="A15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="52.2">
-      <c r="A14" s="17" t="s">
+    <row r="16" spans="1:3" ht="34.799999999999997">
+      <c r="A16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="52.2">
-      <c r="A15" s="15" t="s">
+    <row r="17" spans="1:3" ht="34.799999999999997">
+      <c r="A17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34.799999999999997">
-      <c r="A16" s="17" t="s">
+    <row r="18" spans="1:3" ht="34.799999999999997">
+      <c r="A18" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34.799999999999997">
-      <c r="A17" s="15" t="s">
+    <row r="19" spans="1:3" ht="52.2">
+      <c r="A19" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34.799999999999997">
-      <c r="A18" s="17" t="s">
+    <row r="20" spans="1:3" ht="34.799999999999997">
+      <c r="A20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="17" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="34.799999999999997">
+      <c r="A21" s="14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="52.2">
-      <c r="A19" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="15" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="34.799999999999997">
+      <c r="A22" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="34.799999999999997">
-      <c r="A20" s="17" t="s">
+      <c r="B22" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="52.2">
+      <c r="A23" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34.799999999999997">
+      <c r="A24" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34.799999999999997">
+      <c r="A25" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34.799999999999997">
+      <c r="A26" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34.799999999999997">
-      <c r="A21" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34.799999999999997">
-      <c r="A22" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="52.2">
-      <c r="A23" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34.799999999999997">
-      <c r="A24" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="17" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="52.2">
+      <c r="A27" s="14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="34.799999999999997">
-      <c r="A25" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="15" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="52.2">
+      <c r="A28" s="16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="34.799999999999997">
-      <c r="A26" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="52.2">
-      <c r="A27" s="15" t="s">
+    <row r="29" spans="1:3" ht="34.799999999999997">
+      <c r="A29" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34.799999999999997">
-      <c r="A28" s="17" t="s">
+    <row r="30" spans="1:3" ht="34.799999999999997">
+      <c r="A30" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34.799999999999997">
-      <c r="A29" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="34.799999999999997">
-      <c r="A30" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C35A14-D84D-4489-B85A-691B00FDEDF5}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="78.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>187</v>
+      <c r="C30" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524E1D32-F842-40D0-86AD-9A7DA6F0FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A66FF-1276-47FC-A61D-B6CFCF24A65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33585" yWindow="1830" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="203">
   <si>
     <t>Работа</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Долги</t>
   </si>
   <si>
-    <t>Привезти принтер с зимней в Бункер</t>
-  </si>
-  <si>
     <t xml:space="preserve">Почистить гараж </t>
   </si>
   <si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>Купить двигатель для машины</t>
-  </si>
-  <si>
-    <t>Привезти принтер</t>
   </si>
   <si>
     <t>Собирать мини огнененые пушки</t>
@@ -172,15 +166,9 @@
     <t>Разобрать полезные вещи</t>
   </si>
   <si>
-    <t>Перебрать ящик с одеждой</t>
-  </si>
-  <si>
     <t>Сегодня</t>
   </si>
   <si>
-    <t>Передать кабеля для принтера на зимней для Влада</t>
-  </si>
-  <si>
     <t>Прибраться в кухонных ящиках</t>
   </si>
   <si>
@@ -436,9 +424,6 @@
     <t>Позвонить по самокатам</t>
   </si>
   <si>
-    <t>Погладить одежду</t>
-  </si>
-  <si>
     <t>Время</t>
   </si>
   <si>
@@ -556,15 +541,9 @@
     <t>Вода</t>
   </si>
   <si>
-    <t>Фауст - 6000</t>
-  </si>
-  <si>
     <t>В доставке</t>
   </si>
   <si>
-    <t>Органайзеры для ящиков</t>
-  </si>
-  <si>
     <t>Уф диоды</t>
   </si>
   <si>
@@ -586,9 +565,6 @@
     <t>Продать принтер из гаража</t>
   </si>
   <si>
-    <t>Сделать зарядку для мибэнда</t>
-  </si>
-  <si>
     <t>Самокат отдать Антону</t>
   </si>
   <si>
@@ -613,31 +589,67 @@
     <t>Подумать о свете на балкон</t>
   </si>
   <si>
-    <t>Отчитаться за коммандировку</t>
-  </si>
-  <si>
-    <t>Подписать договор</t>
-  </si>
-  <si>
     <t>Галл - 3500</t>
   </si>
   <si>
-    <t>еще 1 Договор с Олегом</t>
-  </si>
-  <si>
     <t xml:space="preserve">Купить лаги на пол 50 на 50 </t>
   </si>
   <si>
-    <t>привезти с зимней отеплитель на балкон</t>
-  </si>
-  <si>
-    <t>Записать винду на флешку</t>
-  </si>
-  <si>
     <t>Пленка для трафарета</t>
   </si>
   <si>
-    <t>Жекан 4000</t>
+    <t>Починить ноут</t>
+  </si>
+  <si>
+    <t>Найти где не хватает коробки</t>
+  </si>
+  <si>
+    <t>Лазертаг в субботу с 6 до 12 вечера</t>
+  </si>
+  <si>
+    <t>Балкон 3000 - 5 шт, 10 по метру</t>
+  </si>
+  <si>
+    <t>Полянка с 23 по 25 июня</t>
+  </si>
+  <si>
+    <t>Мяч для кепки из гаража</t>
+  </si>
+  <si>
+    <t>Органайзер для кухонного стола</t>
+  </si>
+  <si>
+    <t>Кабель PSP</t>
+  </si>
+  <si>
+    <t>Спирт</t>
+  </si>
+  <si>
+    <t>Переписать справочник по Python</t>
+  </si>
+  <si>
+    <t>Привезти фанеру для пола, ножевку и саморезы, купить уголок</t>
+  </si>
+  <si>
+    <t>Увезти самокат на зимнюю</t>
+  </si>
+  <si>
+    <t>На почту</t>
+  </si>
+  <si>
+    <t>Вернуть Хрому телефон</t>
+  </si>
+  <si>
+    <t>Доделать ноутбук для Игорян</t>
+  </si>
+  <si>
+    <t>К Хрому</t>
+  </si>
+  <si>
+    <t>В Лазертаг</t>
+  </si>
+  <si>
+    <t>Домой передать Анри</t>
   </si>
 </sst>
 </file>
@@ -843,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -931,6 +943,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,7 +1230,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1260,267 +1275,280 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="28.8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.2">
       <c r="A2" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.8">
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="M2" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="43.2">
-      <c r="A3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.8">
+      <c r="B4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.8">
-      <c r="A4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="M4" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="43.2">
-      <c r="A5" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="5"/>
       <c r="M5" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.8">
+      <c r="B7" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.8">
-      <c r="B6" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="43.2">
+      <c r="B8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.8">
-      <c r="B8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>129</v>
+      <c r="D8" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M8" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="100.8">
+      <c r="B9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="43.2">
-      <c r="B9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="G9" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="100.8">
+    <row r="10" spans="1:13" ht="28.8">
       <c r="B10" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.2">
       <c r="B11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="43.2">
+      <c r="B12" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="5" t="s">
-        <v>189</v>
+      <c r="D12" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.8">
       <c r="B13" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="G13" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.8">
+        <v>33</v>
+      </c>
+      <c r="I13"/>
+      <c r="K13" s="5"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="G15" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.2">
       <c r="G16" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="7:7" ht="28.8">
       <c r="G17" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="7:7" ht="57.6">
       <c r="G18" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="7:7" ht="48" customHeight="1"/>
@@ -1548,7 +1576,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="C1" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
@@ -1560,203 +1588,203 @@
     <row r="2" spans="1:9">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A3" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>151</v>
-      </c>
       <c r="D3" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>152</v>
-      </c>
       <c r="D4" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>154</v>
-      </c>
       <c r="D6" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>162</v>
-      </c>
       <c r="E7" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>168</v>
-      </c>
       <c r="G7" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1785,298 +1813,298 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45.6">
       <c r="A1" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2">
       <c r="A3" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999">
       <c r="A5" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.799999999999997">
       <c r="A6" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.799999999999997">
       <c r="A7" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.2">
       <c r="A8" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.799999999999997">
       <c r="A9" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.2">
       <c r="A10" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34.799999999999997">
       <c r="A11" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34.799999999999997">
       <c r="A12" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="52.2">
       <c r="A13" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.2">
       <c r="A14" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="52.2">
       <c r="A15" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.799999999999997">
       <c r="A16" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.799999999999997">
       <c r="A17" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34.799999999999997">
       <c r="A18" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="52.2">
       <c r="A19" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34.799999999999997">
       <c r="A20" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34.799999999999997">
       <c r="A21" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34.799999999999997">
       <c r="A22" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="52.2">
       <c r="A23" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34.799999999999997">
       <c r="A24" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34.799999999999997">
       <c r="A25" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34.799999999999997">
       <c r="A26" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="52.2">
       <c r="A27" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34.799999999999997">
+      <c r="A28" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="52.2">
-      <c r="A28" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34.799999999999997">
       <c r="A29" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34.799999999999997">
       <c r="A30" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A66FF-1276-47FC-A61D-B6CFCF24A65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D146A43-E01F-4709-B803-DDD0EA05036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
     <sheet name="Рацион" sheetId="3" r:id="rId2"/>
     <sheet name="Для ноута " sheetId="2" r:id="rId3"/>
+    <sheet name="Гараж" sheetId="4" r:id="rId4"/>
+    <sheet name="Зимняя" sheetId="6" r:id="rId5"/>
+    <sheet name="Выданные вещи" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="230">
   <si>
     <t>Работа</t>
   </si>
@@ -583,48 +586,27 @@
     <t>Габариты балкона - 3100 на 990 на 140</t>
   </si>
   <si>
-    <t>Починить ноут Игоряна</t>
-  </si>
-  <si>
     <t>Подумать о свете на балкон</t>
   </si>
   <si>
     <t>Галл - 3500</t>
   </si>
   <si>
-    <t xml:space="preserve">Купить лаги на пол 50 на 50 </t>
-  </si>
-  <si>
-    <t>Пленка для трафарета</t>
-  </si>
-  <si>
     <t>Починить ноут</t>
   </si>
   <si>
     <t>Найти где не хватает коробки</t>
   </si>
   <si>
-    <t>Лазертаг в субботу с 6 до 12 вечера</t>
-  </si>
-  <si>
     <t>Балкон 3000 - 5 шт, 10 по метру</t>
   </si>
   <si>
-    <t>Полянка с 23 по 25 июня</t>
-  </si>
-  <si>
     <t>Мяч для кепки из гаража</t>
   </si>
   <si>
     <t>Органайзер для кухонного стола</t>
   </si>
   <si>
-    <t>Кабель PSP</t>
-  </si>
-  <si>
-    <t>Спирт</t>
-  </si>
-  <si>
     <t>Переписать справочник по Python</t>
   </si>
   <si>
@@ -637,19 +619,121 @@
     <t>На почту</t>
   </si>
   <si>
-    <t>Вернуть Хрому телефон</t>
-  </si>
-  <si>
-    <t>Доделать ноутбук для Игорян</t>
-  </si>
-  <si>
-    <t>К Хрому</t>
-  </si>
-  <si>
-    <t>В Лазертаг</t>
-  </si>
-  <si>
-    <t>Домой передать Анри</t>
+    <t>Найти дома ежедневник для записей и переписать справочник по питону</t>
+  </si>
+  <si>
+    <t>Провода</t>
+  </si>
+  <si>
+    <t>Очки</t>
+  </si>
+  <si>
+    <t>Кулеры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где </t>
+  </si>
+  <si>
+    <t>Куда</t>
+  </si>
+  <si>
+    <t>Для чего</t>
+  </si>
+  <si>
+    <t>Самокат</t>
+  </si>
+  <si>
+    <t>Домой</t>
+  </si>
+  <si>
+    <t>Починить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самокат </t>
+  </si>
+  <si>
+    <t>Отдать</t>
+  </si>
+  <si>
+    <t>Мяч</t>
+  </si>
+  <si>
+    <t>Поставить кепку</t>
+  </si>
+  <si>
+    <t>Тур. Одежда</t>
+  </si>
+  <si>
+    <t>Найти шорты ДК</t>
+  </si>
+  <si>
+    <t>Железо</t>
+  </si>
+  <si>
+    <t>Дом - балкон</t>
+  </si>
+  <si>
+    <t>На хранение</t>
+  </si>
+  <si>
+    <t>Фанера</t>
+  </si>
+  <si>
+    <t>Балкон</t>
+  </si>
+  <si>
+    <t>Саморезы</t>
+  </si>
+  <si>
+    <t>Ножевка</t>
+  </si>
+  <si>
+    <t>Шуруповерт</t>
+  </si>
+  <si>
+    <t>Линейка, уголок</t>
+  </si>
+  <si>
+    <t>Отдать ключи от квартиры Ангелины</t>
+  </si>
+  <si>
+    <t>Гончарный круг в аренду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перфоратор </t>
+  </si>
+  <si>
+    <t>Мишаня</t>
+  </si>
+  <si>
+    <t>Мираж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лодка </t>
+  </si>
+  <si>
+    <t>На зимней у арсения</t>
+  </si>
+  <si>
+    <t>Ханаору</t>
+  </si>
+  <si>
+    <t>Фауст - 4200 до 15.06</t>
+  </si>
+  <si>
+    <t>Ручка для болгарки</t>
+  </si>
+  <si>
+    <t>Забрать перфоратор у Мишки</t>
+  </si>
+  <si>
+    <t>Взять шуруповерт и сверла из дома</t>
+  </si>
+  <si>
+    <t>Купить анкера или длинные дюбеля</t>
   </si>
 </sst>
 </file>
@@ -688,7 +772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,18 +830,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -923,29 +995,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,7 +1290,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1239,7 +1299,7 @@
     <col min="2" max="2" width="28.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="25.21875" style="5" customWidth="1"/>
     <col min="4" max="6" width="24.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="27" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" style="5" customWidth="1"/>
     <col min="10" max="11" width="16.77734375" customWidth="1"/>
@@ -1265,7 +1325,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1289,7 +1349,7 @@
     </row>
     <row r="2" spans="1:13" ht="43.2">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -1306,29 +1366,21 @@
       <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>201</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="28.8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.2">
       <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
@@ -1341,21 +1393,14 @@
       <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>167</v>
+      <c r="I3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.8">
@@ -1371,17 +1416,15 @@
       <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>199</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.2">
+      <c r="J4" s="5"/>
+      <c r="M4" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8">
       <c r="B5" s="5" t="s">
         <v>126</v>
       </c>
@@ -1391,13 +1434,12 @@
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="I5"/>
-      <c r="J5" s="5"/>
       <c r="M5" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1410,11 +1452,11 @@
       <c r="D6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.8">
@@ -1427,11 +1469,11 @@
       <c r="D7" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="43.2">
@@ -1445,16 +1487,16 @@
         <v>172</v>
       </c>
       <c r="F8"/>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="100.8">
       <c r="B9" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>173</v>
@@ -1462,92 +1504,102 @@
       <c r="D9" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="28"/>
+      <c r="M9" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="28.8">
       <c r="B10" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.2">
       <c r="B11" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>177</v>
+      <c r="M11" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="43.2">
       <c r="B12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="27" t="s">
         <v>32</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.8">
       <c r="B13" s="5" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>33</v>
       </c>
       <c r="I13"/>
-      <c r="K13" s="5"/>
-      <c r="M13"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="G15" s="30" t="s">
+    <row r="15" spans="1:13" ht="28.8">
+      <c r="B15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.2">
-      <c r="G16" s="30" t="s">
+      <c r="B16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="7:7" ht="28.8">
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="7:7" ht="57.6">
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1575,15 +1627,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="20"/>
@@ -1909,7 +1961,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="52.2">
+    <row r="13" spans="1:3" ht="34.799999999999997">
       <c r="A13" s="14" t="s">
         <v>70</v>
       </c>
@@ -2105,6 +2157,266 @@
       </c>
       <c r="C30" s="16" t="s">
         <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FEB8A3-86EA-4D7D-94D1-F198B9FE924F}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="5" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F510B46-C808-4319-9053-BDFFB2882E8A}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="5" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D0C479-9EBF-4B25-8550-9BB76D8D96A4}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D146A43-E01F-4709-B803-DDD0EA05036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D95F20-AEAB-472A-9808-A0DCCE4E207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="229">
   <si>
     <t>Работа</t>
   </si>
@@ -547,18 +547,12 @@
     <t>В доставке</t>
   </si>
   <si>
-    <t>Уф диоды</t>
-  </si>
-  <si>
     <t>Уровень для винилового проигрывателя</t>
   </si>
   <si>
     <t>Реле</t>
   </si>
   <si>
-    <t>Щупы</t>
-  </si>
-  <si>
     <t>Увлажнители</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>Летать на квадрике</t>
   </si>
   <si>
-    <t>Тройники для газовых пушек</t>
-  </si>
-  <si>
     <t>Дисплей для телефона</t>
   </si>
   <si>
@@ -589,9 +580,6 @@
     <t>Подумать о свете на балкон</t>
   </si>
   <si>
-    <t>Галл - 3500</t>
-  </si>
-  <si>
     <t>Починить ноут</t>
   </si>
   <si>
@@ -607,9 +595,6 @@
     <t>Органайзер для кухонного стола</t>
   </si>
   <si>
-    <t>Переписать справочник по Python</t>
-  </si>
-  <si>
     <t>Привезти фанеру для пола, ножевку и саморезы, купить уголок</t>
   </si>
   <si>
@@ -619,9 +604,6 @@
     <t>На почту</t>
   </si>
   <si>
-    <t>Найти дома ежедневник для записей и переписать справочник по питону</t>
-  </si>
-  <si>
     <t>Провода</t>
   </si>
   <si>
@@ -697,9 +679,6 @@
     <t>Линейка, уголок</t>
   </si>
   <si>
-    <t>Отдать ключи от квартиры Ангелины</t>
-  </si>
-  <si>
     <t>Гончарный круг в аренду</t>
   </si>
   <si>
@@ -727,13 +706,31 @@
     <t>Ручка для болгарки</t>
   </si>
   <si>
-    <t>Забрать перфоратор у Мишки</t>
-  </si>
-  <si>
-    <t>Взять шуруповерт и сверла из дома</t>
-  </si>
-  <si>
     <t>Купить анкера или длинные дюбеля</t>
+  </si>
+  <si>
+    <t>Уголки, дюбеля</t>
+  </si>
+  <si>
+    <t>Кому</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эндоскоп </t>
+  </si>
+  <si>
+    <t>Взять чемодан у Андрюхи</t>
+  </si>
+  <si>
+    <t>Галл - 3000</t>
+  </si>
+  <si>
+    <t>Шприц со смазкгой для качели</t>
+  </si>
+  <si>
+    <t>Сабуфер из ФуллХауса</t>
+  </si>
+  <si>
+    <t>Шуруповерт сетевой импульсный</t>
   </si>
 </sst>
 </file>
@@ -772,7 +769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,6 +833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1002,6 +1005,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1290,7 +1296,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1348,16 +1354,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="43.2">
-      <c r="A2" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1370,15 +1373,13 @@
         <v>23</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>167</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="43.2">
       <c r="B3" s="5" t="s">
@@ -1397,10 +1398,13 @@
         <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.8">
@@ -1421,7 +1425,7 @@
       </c>
       <c r="J4" s="5"/>
       <c r="M4" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.8">
@@ -1438,13 +1442,11 @@
         <v>26</v>
       </c>
       <c r="I5"/>
-      <c r="M5" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>40</v>
@@ -1456,12 +1458,12 @@
         <v>27</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.8">
       <c r="B7" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>16</v>
@@ -1472,97 +1474,95 @@
       <c r="G7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>176</v>
-      </c>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="43.2">
       <c r="B8" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="100.8">
       <c r="B9" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>192</v>
+      <c r="M9" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.8">
       <c r="B10" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.2">
       <c r="B11" s="5" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>194</v>
+      <c r="M11" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="43.2">
       <c r="B12" s="5" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>226</v>
+      <c r="M12" s="28" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="28.8">
       <c r="B13" s="5" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>33</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>34</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="15" spans="1:13" ht="28.8">
       <c r="B15" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>35</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="16" spans="1:13" ht="43.2">
       <c r="B16" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>36</v>
@@ -1627,15 +1627,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="20"/>
@@ -1961,7 +1961,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34.799999999999997">
+    <row r="13" spans="1:3" ht="52.2">
       <c r="A13" s="14" t="s">
         <v>70</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34.799999999999997">
+    <row r="28" spans="1:3" ht="52.2">
       <c r="A28" s="16" t="s">
         <v>113</v>
       </c>
@@ -2182,35 +2182,35 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -2219,49 +2219,49 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2287,86 +2287,86 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2379,44 +2379,71 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:D5"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
         <v>223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D95F20-AEAB-472A-9808-A0DCCE4E207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E7FDB-1AA6-4D62-AA72-E4A2B0EDC3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="230">
   <si>
     <t>Работа</t>
   </si>
@@ -709,9 +709,6 @@
     <t>Купить анкера или длинные дюбеля</t>
   </si>
   <si>
-    <t>Уголки, дюбеля</t>
-  </si>
-  <si>
     <t>Кому</t>
   </si>
   <si>
@@ -724,13 +721,19 @@
     <t>Галл - 3000</t>
   </si>
   <si>
-    <t>Шприц со смазкгой для качели</t>
-  </si>
-  <si>
     <t>Сабуфер из ФуллХауса</t>
   </si>
   <si>
     <t>Шуруповерт сетевой импульсный</t>
+  </si>
+  <si>
+    <t>Привезти удленниитель Никите</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дремель  </t>
+  </si>
+  <si>
+    <t>У Бориски</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1299,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1373,7 +1376,10 @@
         <v>23</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="J2" t="s">
+        <v>185</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
@@ -1400,9 +1406,6 @@
       <c r="I3" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="M3" s="10" t="s">
         <v>167</v>
       </c>
@@ -1532,6 +1535,9 @@
       <c r="B11" s="5" t="s">
         <v>220</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>179</v>
       </c>
@@ -1544,7 +1550,7 @@
     </row>
     <row r="12" spans="1:13" ht="43.2">
       <c r="B12" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>183</v>
@@ -1571,24 +1577,18 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8">
-      <c r="B15" s="5" t="s">
-        <v>220</v>
-      </c>
+    <row r="15" spans="1:13">
       <c r="G15" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.2">
-      <c r="B16" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="G16" s="27" t="s">
         <v>36</v>
       </c>
@@ -2379,10 +2379,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2395,7 +2395,7 @@
         <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -2432,7 +2432,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
         <v>216</v>
@@ -2440,10 +2440,18 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E7FDB-1AA6-4D62-AA72-E4A2B0EDC3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE5D8B2-776B-418E-8C10-03EF43E952AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
-    <sheet name="Рацион" sheetId="3" r:id="rId2"/>
-    <sheet name="Для ноута " sheetId="2" r:id="rId3"/>
-    <sheet name="Гараж" sheetId="4" r:id="rId4"/>
-    <sheet name="Зимняя" sheetId="6" r:id="rId5"/>
-    <sheet name="Выданные вещи" sheetId="7" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="8" r:id="rId2"/>
+    <sheet name="Рацион" sheetId="3" r:id="rId3"/>
+    <sheet name="Для ноута " sheetId="2" r:id="rId4"/>
+    <sheet name="Гараж" sheetId="4" r:id="rId5"/>
+    <sheet name="Зимняя" sheetId="6" r:id="rId6"/>
+    <sheet name="Выданные вещи" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="229">
   <si>
     <t>Работа</t>
   </si>
@@ -76,9 +77,6 @@
     <t>Нарисовать модель черепа для распечатки 3Д</t>
   </si>
   <si>
-    <t>Забрать у Ромки скалолазное оборудование</t>
-  </si>
-  <si>
     <t>Перебрать полки над телевизором</t>
   </si>
   <si>
@@ -98,9 +96,6 @@
   </si>
   <si>
     <t>Сварить Галлу обувницу</t>
-  </si>
-  <si>
-    <t>Покрасить Мишкины стелажи</t>
   </si>
   <si>
     <t>Купить двигатель для машины</t>
@@ -415,15 +410,9 @@
     <t>Сдать велосипед в ремонт</t>
   </si>
   <si>
-    <t>Починить ноутбук</t>
-  </si>
-  <si>
     <t>Забрать очки из метки</t>
   </si>
   <si>
-    <t>Привезти учебный набор для Манюхи и Соседки</t>
-  </si>
-  <si>
     <t>Позвонить по самокатам</t>
   </si>
   <si>
@@ -556,9 +545,6 @@
     <t>Увлажнители</t>
   </si>
   <si>
-    <t>Купить балон с черной краской и покрасить Мишкин стелаж</t>
-  </si>
-  <si>
     <t>Продать принтер из гаража</t>
   </si>
   <si>
@@ -568,36 +554,18 @@
     <t>Летать на квадрике</t>
   </si>
   <si>
-    <t>Дисплей для телефона</t>
-  </si>
-  <si>
-    <t>Померять балкон, напилить досок, найти шурик сверло и саморезы. Найти что укладывать на пол. Найти утеплитель, забрать у фауста из гаража</t>
-  </si>
-  <si>
-    <t>Габариты балкона - 3100 на 990 на 140</t>
-  </si>
-  <si>
     <t>Подумать о свете на балкон</t>
   </si>
   <si>
-    <t>Починить ноут</t>
-  </si>
-  <si>
     <t>Найти где не хватает коробки</t>
   </si>
   <si>
-    <t>Балкон 3000 - 5 шт, 10 по метру</t>
-  </si>
-  <si>
     <t>Мяч для кепки из гаража</t>
   </si>
   <si>
     <t>Органайзер для кухонного стола</t>
   </si>
   <si>
-    <t>Привезти фанеру для пола, ножевку и саморезы, купить уголок</t>
-  </si>
-  <si>
     <t>Увезти самокат на зимнюю</t>
   </si>
   <si>
@@ -685,9 +653,6 @@
     <t xml:space="preserve">Перфоратор </t>
   </si>
   <si>
-    <t>Мишаня</t>
-  </si>
-  <si>
     <t>Мираж</t>
   </si>
   <si>
@@ -703,21 +668,12 @@
     <t>Фауст - 4200 до 15.06</t>
   </si>
   <si>
-    <t>Ручка для болгарки</t>
-  </si>
-  <si>
-    <t>Купить анкера или длинные дюбеля</t>
-  </si>
-  <si>
     <t>Кому</t>
   </si>
   <si>
     <t xml:space="preserve">Эндоскоп </t>
   </si>
   <si>
-    <t>Взять чемодан у Андрюхи</t>
-  </si>
-  <si>
     <t>Галл - 3000</t>
   </si>
   <si>
@@ -727,13 +683,55 @@
     <t>Шуруповерт сетевой импульсный</t>
   </si>
   <si>
-    <t>Привезти удленниитель Никите</t>
-  </si>
-  <si>
     <t xml:space="preserve">Дремель  </t>
   </si>
   <si>
     <t>У Бориски</t>
+  </si>
+  <si>
+    <t>Постирать кепку</t>
+  </si>
+  <si>
+    <t>Починить свой ноут</t>
+  </si>
+  <si>
+    <t>Настроить квадрик</t>
+  </si>
+  <si>
+    <t>Массажер</t>
+  </si>
+  <si>
+    <t>У мамы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пылесос </t>
+  </si>
+  <si>
+    <t>УлетайЙйй 13 - 16 июня</t>
+  </si>
+  <si>
+    <t>Поезд</t>
+  </si>
+  <si>
+    <t>Аэроэкспресс</t>
+  </si>
+  <si>
+    <t>Такси</t>
+  </si>
+  <si>
+    <t>Метро</t>
+  </si>
+  <si>
+    <t>Самолет</t>
+  </si>
+  <si>
+    <t>Туда</t>
+  </si>
+  <si>
+    <t>Туда-обратно</t>
+  </si>
+  <si>
+    <t>Профит</t>
   </si>
 </sst>
 </file>
@@ -772,7 +770,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,6 +840,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1011,6 +1015,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1299,7 +1306,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1344,263 +1351,229 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="43.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8">
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>23</v>
+      <c r="G2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="43.2">
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.8">
       <c r="B4" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="5"/>
       <c r="M4" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.8">
       <c r="B5" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M6" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8">
+      <c r="B8" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="28.8">
-      <c r="B7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="43.2">
-      <c r="B8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="100.8">
-      <c r="B9" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.8">
-      <c r="B10" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="M10" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.2">
       <c r="B11" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="43.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="B12" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="G12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="M12" s="28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.8">
-      <c r="B13" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="G15" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.2">
       <c r="G16" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="7:7" ht="28.8">
       <c r="G17" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="7:7" ht="57.6">
       <c r="G18" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="7:7" ht="48" customHeight="1"/>
@@ -1612,6 +1585,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A43B06-02F3-409A-AE59-019B07C1E975}">
+  <dimension ref="A2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3">
+        <v>5700</v>
+      </c>
+      <c r="D3">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B3:B8)</f>
+        <v>7300</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="0">SUM(D3:D8)</f>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11">
+        <f>B10*2</f>
+        <v>14600</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="1">D10*2</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13">
+        <f>B11-D11</f>
+        <v>4100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225F4700-9A75-4BE5-9FBF-A560CD888987}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -1627,216 +1715,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="C1" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>136</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A6" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>148</v>
-      </c>
       <c r="E6" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D3692-049E-4EB1-8D09-BDFA3EDD5B36}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -1865,298 +1953,298 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45.6">
       <c r="A1" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="52.2">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999">
       <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.799999999999997">
       <c r="A6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.799999999999997">
       <c r="A7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.2">
       <c r="A8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.799999999999997">
       <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.2">
       <c r="A10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34.799999999999997">
       <c r="A11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34.799999999999997">
       <c r="A12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="52.2">
       <c r="A13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.2">
       <c r="A14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="52.2">
       <c r="A15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.799999999999997">
       <c r="A16" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.799999999999997">
       <c r="A17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34.799999999999997">
       <c r="A18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="52.2">
       <c r="A19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34.799999999999997">
       <c r="A20" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34.799999999999997">
       <c r="A21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34.799999999999997">
       <c r="A22" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="52.2">
       <c r="A23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34.799999999999997">
       <c r="A24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34.799999999999997">
       <c r="A25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34.799999999999997">
       <c r="A26" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="52.2">
       <c r="A27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="52.2">
       <c r="A28" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34.799999999999997">
       <c r="A29" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34.799999999999997">
       <c r="A30" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +2252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FEB8A3-86EA-4D7D-94D1-F198B9FE924F}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2182,35 +2270,35 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -2219,49 +2307,49 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F510B46-C808-4319-9053-BDFFB2882E8A}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -2287,86 +2375,86 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2374,15 +2462,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D0C479-9EBF-4B25-8550-9BB76D8D96A4}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2392,66 +2480,74 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Список дел.xlsx
+++ b/Список дел.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotof\Desktop\MyFinance\MyFinance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\GitHub\MyFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE5D8B2-776B-418E-8C10-03EF43E952AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AD8A95-9291-423B-84E7-0C978EF52F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="228">
   <si>
     <t>Работа</t>
   </si>
@@ -693,9 +693,6 @@
   </si>
   <si>
     <t>Починить свой ноут</t>
-  </si>
-  <si>
-    <t>Настроить квадрик</t>
   </si>
   <si>
     <t>Массажер</t>
@@ -1306,23 +1303,23 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="5" customWidth="1"/>
-    <col min="4" max="6" width="24.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" style="5" customWidth="1"/>
-    <col min="10" max="11" width="16.77734375" customWidth="1"/>
-    <col min="12" max="13" width="16.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="24.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="13" width="16.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="43.9" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1360,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8">
+    <row r="2" spans="1:13" ht="45">
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>209</v>
@@ -1394,7 +1391,7 @@
       </c>
       <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="1:13" ht="43.2">
+    <row r="3" spans="1:13" ht="45">
       <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1414,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8">
+    <row r="4" spans="1:13" ht="30">
       <c r="B4" s="8" t="s">
         <v>120</v>
       </c>
@@ -1438,7 +1435,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8">
+    <row r="5" spans="1:13" ht="30">
       <c r="B5" s="5" t="s">
         <v>122</v>
       </c>
@@ -1454,7 +1451,7 @@
       <c r="I5"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="30">
       <c r="B6" s="5" t="s">
         <v>167</v>
       </c>
@@ -1480,7 +1477,7 @@
       </c>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="28.8">
+    <row r="8" spans="1:13" ht="30">
       <c r="B8" s="5" t="s">
         <v>169</v>
       </c>
@@ -1493,7 +1490,7 @@
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="30">
       <c r="B9" s="5" t="s">
         <v>215</v>
       </c>
@@ -1521,7 +1518,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2">
+    <row r="11" spans="1:13" ht="45">
       <c r="B11" s="5" t="s">
         <v>210</v>
       </c>
@@ -1543,9 +1540,6 @@
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="G13" s="27" t="s">
         <v>31</v>
       </c>
@@ -1561,23 +1555,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.2">
+    <row r="16" spans="1:13" ht="45">
       <c r="G16" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="7:7" ht="28.8">
+    <row r="17" spans="7:7" ht="30">
       <c r="G17" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="57.6">
+    <row r="18" spans="7:7" ht="60">
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="7:7" ht="48" customHeight="1"/>
-    <row r="20" spans="7:7" ht="32.4" customHeight="1"/>
+    <row r="20" spans="7:7" ht="32.450000000000003" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1592,17 +1586,17 @@
       <selection activeCell="A2" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1615,7 +1609,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -1623,7 +1617,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -1631,7 +1625,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6">
         <v>500</v>
@@ -1642,7 +1636,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -1653,7 +1647,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -1661,7 +1655,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10">
         <f>SUM(B3:B8)</f>
@@ -1674,7 +1668,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11">
         <f>B10*2</f>
@@ -1687,7 +1681,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13">
         <f>B11-D11</f>
@@ -1707,11 +1701,11 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="9" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1752,7 +1746,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34.200000000000003" customHeight="1">
+    <row r="3" spans="1:9" ht="34.15" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>137</v>
       </c>
@@ -1781,7 +1775,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34.200000000000003" customHeight="1">
+    <row r="4" spans="1:9" ht="34.15" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>138</v>
       </c>
@@ -1810,7 +1804,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34.200000000000003" customHeight="1">
+    <row r="5" spans="1:9" ht="34.15" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>139</v>
       </c>
@@ -1839,7 +1833,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="34.200000000000003" customHeight="1">
+    <row r="6" spans="1:9" ht="34.15" customHeight="1">
       <c r="A6" s="20" t="s">
         <v>140</v>
       </c>
@@ -1868,7 +1862,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="34.200000000000003" customHeight="1">
+    <row r="7" spans="1:9" ht="34.15" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>141</v>
       </c>
@@ -1944,24 +1938,24 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45.6">
+    <row r="1" spans="1:3" ht="46.5">
       <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="52.2">
+    <row r="3" spans="1:3" ht="54">
       <c r="A3" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999">
+    <row r="5" spans="1:3" ht="18">
       <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
@@ -1972,7 +1966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.799999999999997">
+    <row r="6" spans="1:3" ht="36">
       <c r="A6" s="16" t="s">
         <v>47</v>
       </c>
@@ -1983,7 +1977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.799999999999997">
+    <row r="7" spans="1:3" ht="36">
       <c r="A7" s="14" t="s">
         <v>50</v>
       </c>
@@ -1994,7 +1988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="52.2">
+    <row r="8" spans="1:3" ht="54">
       <c r="A8" s="16" t="s">
         <v>53</v>
       </c>
@@ -2005,7 +1999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34.799999999999997">
+    <row r="9" spans="1:3" ht="36">
       <c r="A9" s="14" t="s">
         <v>56</v>
       </c>
@@ -2016,7 +2010,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="52.2">
+    <row r="10" spans="1:3" ht="54">
       <c r="A10" s="16" t="s">
         <v>59</v>
       </c>
@@ -2027,7 +2021,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34.799999999999997">
+    <row r="11" spans="1:3" ht="36">
       <c r="A11" s="14" t="s">
         <v>62</v>
       </c>
@@ -2038,7 +2032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34.799999999999997">
+    <row r="12" spans="1:3" ht="36">
       <c r="A12" s="16" t="s">
         <v>65</v>
       </c>
@@ -2049,7 +2043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="52.2">
+    <row r="13" spans="1:3" ht="54">
       <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
@@ -2060,7 +2054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="52.2">
+    <row r="14" spans="1:3" ht="54">
       <c r="A14" s="16" t="s">
         <v>71</v>
       </c>
@@ -2071,7 +2065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="52.2">
+    <row r="15" spans="1:3" ht="54">
       <c r="A15" s="14" t="s">
         <v>74</v>
       </c>
@@ -2082,7 +2076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34.799999999999997">
+    <row r="16" spans="1:3" ht="54">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -2093,7 +2087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34.799999999999997">
+    <row r="17" spans="1:3" ht="36">
       <c r="A17" s="14" t="s">
         <v>80</v>
       </c>
@@ -2104,7 +2098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34.799999999999997">
+    <row r="18" spans="1:3" ht="36">
       <c r="A18" s="16" t="s">
         <v>83</v>
       </c>
@@ -2115,7 +2109,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="52.2">
+    <row r="19" spans="1:3" ht="54">
       <c r="A19" s="14" t="s">
         <v>86</v>
       </c>
@@ -2126,7 +2120,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34.799999999999997">
+    <row r="20" spans="1:3" ht="36">
       <c r="A20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2137,7 +2131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34.799999999999997">
+    <row r="21" spans="1:3" ht="36">
       <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34.799999999999997">
+    <row r="22" spans="1:3" ht="36">
       <c r="A22" s="16" t="s">
         <v>94</v>
       </c>
@@ -2159,7 +2153,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="52.2">
+    <row r="23" spans="1:3" ht="54">
       <c r="A23" s="14" t="s">
         <v>97</v>
       </c>
@@ -2170,7 +2164,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34.799999999999997">
+    <row r="24" spans="1:3" ht="36">
       <c r="A24" s="16" t="s">
         <v>100</v>
       </c>
@@ -2181,7 +2175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34.799999999999997">
+    <row r="25" spans="1:3" ht="36">
       <c r="A25" s="14" t="s">
         <v>103</v>
       </c>
@@ -2192,7 +2186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34.799999999999997">
+    <row r="26" spans="1:3" ht="36">
       <c r="A26" s="16" t="s">
         <v>71</v>
       </c>
@@ -2203,7 +2197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="52.2">
+    <row r="27" spans="1:3" ht="54">
       <c r="A27" s="14" t="s">
         <v>108</v>
       </c>
@@ -2214,7 +2208,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="52.2">
+    <row r="28" spans="1:3" ht="54">
       <c r="A28" s="16" t="s">
         <v>111</v>
       </c>
@@ -2225,7 +2219,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34.799999999999997">
+    <row r="29" spans="1:3" ht="36">
       <c r="A29" s="14" t="s">
         <v>114</v>
       </c>
@@ -2236,7 +2230,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34.799999999999997">
+    <row r="30" spans="1:3" ht="36">
       <c r="A30" s="16" t="s">
         <v>117</v>
       </c>
@@ -2263,9 +2257,9 @@
       <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2368,9 +2362,9 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2473,9 +2467,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -2536,15 +2530,15 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" t="s">
         <v>217</v>
-      </c>
-      <c r="D9" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
         <v>213</v>
